--- a/Report/Results.xlsx
+++ b/Report/Results.xlsx
@@ -8,39 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jones/Desktop/Thesis/Report/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6C22932-CB01-FC4E-AEE5-CF88C23AAA55}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AC4EE51-03E3-4842-9F6E-CF62C25B5792}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="76800" windowHeight="43200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.10" hidden="1">Sheet1!$P$63:$P$64</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">Sheet1!$P$65:$P$72</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">Sheet1!$Q$63:$Q$64</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">Sheet1!$Q$65:$Q$72</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">Sheet1!$R$63:$R$64</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">Sheet1!$R$65:$R$72</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">Sheet1!$S$63:$S$64</definedName>
-    <definedName name="_xlchart.v1.17" hidden="1">Sheet1!$S$65:$S$72</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">Sheet1!$O$65:$O$72</definedName>
-    <definedName name="_xlchart.v2.0" hidden="1">Sheet1!$O$65:$O$72</definedName>
-    <definedName name="_xlchart.v2.1" hidden="1">Sheet1!$P$63:$P$64</definedName>
-    <definedName name="_xlchart.v2.2" hidden="1">Sheet1!$P$65:$P$72</definedName>
-    <definedName name="_xlchart.v2.3" hidden="1">Sheet1!$Q$63:$Q$64</definedName>
-    <definedName name="_xlchart.v2.4" hidden="1">Sheet1!$Q$65:$Q$72</definedName>
-    <definedName name="_xlchart.v2.5" hidden="1">Sheet1!$R$63:$R$64</definedName>
-    <definedName name="_xlchart.v2.6" hidden="1">Sheet1!$R$65:$R$72</definedName>
-    <definedName name="_xlchart.v2.7" hidden="1">Sheet1!$S$63:$S$64</definedName>
-    <definedName name="_xlchart.v2.8" hidden="1">Sheet1!$S$65:$S$72</definedName>
-  </definedNames>
   <calcPr calcId="179017"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="105">
   <si>
     <t>Batch Size 2 Alpha 1 Beta 10 Learning Rate 0.0010</t>
   </si>
@@ -250,6 +230,111 @@
   </si>
   <si>
     <t>avg / total       0.51      0.51      0.51       412</t>
+  </si>
+  <si>
+    <t>Context Detection using Feature Matching</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Car </t>
+  </si>
+  <si>
+    <t>Pedestrian</t>
+  </si>
+  <si>
+    <t>pedestrian_detection AP: 41.648922 40.789223 37.975712</t>
+  </si>
+  <si>
+    <t>pedestrian_detection_BEV AP: 38.399113 35.766422 35.053738</t>
+  </si>
+  <si>
+    <t>pedestrian_heading_BEV AP: 18.400555 17.280657 16.728415</t>
+  </si>
+  <si>
+    <t>pedestrian_detection_3D AP: 30.298996 28.810305 27.585852</t>
+  </si>
+  <si>
+    <t>pedestrian_heading_3D AP: 14.674870 13.956198 13.213568</t>
+  </si>
+  <si>
+    <t>Network Input Data Class Code Inference F-pointNet [2] Image and Lidar multi Yes 170ms VoxelNet [3] Lidar multi N/A 30ms AVOD [4] Image and Lidar multi Yes 80ms MV3D [18] Image and Lidar car Yes 350ms DoBEM [5] Image and Lidar car N/A 600ms 3D-SSMFCNN [1] Image car Yes 100ms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Network Model </t>
+  </si>
+  <si>
+    <t>MV3D</t>
+  </si>
+  <si>
+    <t>Mode</t>
+  </si>
+  <si>
+    <t>MONO3D</t>
+  </si>
+  <si>
+    <t>3DOP</t>
+  </si>
+  <si>
+    <t>LiDAR</t>
+  </si>
+  <si>
+    <t>LiDAR+Image</t>
+  </si>
+  <si>
+    <t>Mono Image</t>
+  </si>
+  <si>
+    <t>Stereo Image</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>Unnoficial</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>100ms</t>
+  </si>
+  <si>
+    <t>360ms</t>
+  </si>
+  <si>
+    <t>pedestrian_detection AP: 55.672031 51.969517 46.578247</t>
+  </si>
+  <si>
+    <t>cyclist_detection AP: 38.668636 23.639612 23.394829</t>
+  </si>
+  <si>
+    <t>pedestrian_detection_BEV AP: 58.895271 58.800095 52.930809</t>
+  </si>
+  <si>
+    <t>pedestrian_heading_BEV AP: 45.082378 44.050426 39.321251</t>
+  </si>
+  <si>
+    <t>cyclist_detection_BEV AP: 38.378601 23.272148 22.987617</t>
+  </si>
+  <si>
+    <t>cyclist_heading_BEV AP: 37.854919 22.951063 22.700773</t>
+  </si>
+  <si>
+    <t>pedestrian_detection_3D AP: 58.734085 54.863007 52.668953</t>
+  </si>
+  <si>
+    <t>pedestrian_heading_3D AP: 44.973850 41.573380 39.136570</t>
+  </si>
+  <si>
+    <t>cyclist_detection_3D AP: 38.378601 23.272148 22.987617</t>
+  </si>
+  <si>
+    <t>cyclist_heading_3D AP: 37.854919 22.951063 22.700773</t>
+  </si>
+  <si>
+    <t>4.2s</t>
+  </si>
+  <si>
+    <t>3s</t>
   </si>
 </sst>
 </file>
@@ -258,7 +343,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="[$£-809]#,##0.00;[Red]&quot;-&quot;[$£-809]#,##0.00"/>
-    <numFmt numFmtId="178" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
   <fonts count="6">
     <font>
@@ -308,7 +393,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="29">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -690,8 +775,32 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
-      <right style="thin">
+      <right/>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
         <color indexed="64"/>
       </right>
       <top style="thick">
@@ -714,7 +823,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -729,22 +838,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
@@ -755,9 +855,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -767,34 +883,45 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Heading" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -4434,10 +4561,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AMJ93"/>
+  <dimension ref="A1:AMJ137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H61" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="N89" sqref="N89:Q91"/>
+    <sheetView tabSelected="1" topLeftCell="A103" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="C130" sqref="C130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -4453,19 +4580,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1024" ht="18" customHeight="1">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
       <c r="E1" s="1"/>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1" t="s">
         <v>22</v>
@@ -5683,12 +5810,12 @@
       </c>
     </row>
     <row r="7" spans="1:1024" ht="18" customHeight="1">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
+      <c r="B7" s="55"/>
+      <c r="C7" s="55"/>
+      <c r="D7" s="55"/>
       <c r="E7" s="3"/>
       <c r="J7" s="3"/>
       <c r="N7" s="3"/>
@@ -6716,12 +6843,12 @@
       <c r="D8">
         <v>55.972510999999997</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="F8" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
+      <c r="G8" s="55"/>
+      <c r="H8" s="55"/>
+      <c r="I8" s="55"/>
     </row>
     <row r="9" spans="1:1024">
       <c r="A9" t="s">
@@ -6814,12 +6941,12 @@
       </c>
     </row>
     <row r="13" spans="1:1024" s="4" customFormat="1">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
+      <c r="B13" s="54"/>
+      <c r="C13" s="54"/>
+      <c r="D13" s="54"/>
       <c r="F13" t="s">
         <v>4</v>
       </c>
@@ -6932,12 +7059,12 @@
       </c>
     </row>
     <row r="19" spans="1:13" s="4" customFormat="1">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
+      <c r="B19" s="54"/>
+      <c r="C19" s="54"/>
+      <c r="D19" s="54"/>
       <c r="F19" t="s">
         <v>28</v>
       </c>
@@ -7050,12 +7177,12 @@
       </c>
     </row>
     <row r="25" spans="1:13" s="4" customFormat="1">
-      <c r="A25" s="5" t="s">
+      <c r="A25" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
+      <c r="B25" s="54"/>
+      <c r="C25" s="54"/>
+      <c r="D25" s="54"/>
       <c r="F25" t="s">
         <v>28</v>
       </c>
@@ -7167,15 +7294,15 @@
         <v>27</v>
       </c>
       <c r="K29">
-        <f>B69-B65</f>
+        <f t="shared" ref="K29:M30" si="2">B69-B65</f>
         <v>2.2946550000000059</v>
       </c>
       <c r="L29">
-        <f>C69-C65</f>
+        <f t="shared" si="2"/>
         <v>-0.82664499999999919</v>
       </c>
       <c r="M29">
-        <f>D69-D65</f>
+        <f t="shared" si="2"/>
         <v>1.3992539999999991</v>
       </c>
     </row>
@@ -7184,25 +7311,25 @@
         <v>28</v>
       </c>
       <c r="K30">
-        <f>B70-B66</f>
+        <f t="shared" si="2"/>
         <v>-5.0113979999999998</v>
       </c>
       <c r="L30">
-        <f>C70-C66</f>
+        <f t="shared" si="2"/>
         <v>-9.018383</v>
       </c>
       <c r="M30">
-        <f>D70-D66</f>
+        <f t="shared" si="2"/>
         <v>-4.9346700000000041</v>
       </c>
     </row>
     <row r="31" spans="1:13" s="4" customFormat="1">
-      <c r="A31" s="5" t="s">
+      <c r="A31" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="B31" s="5"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
+      <c r="B31" s="54"/>
+      <c r="C31" s="54"/>
+      <c r="D31" s="54"/>
     </row>
     <row r="32" spans="1:13">
       <c r="A32" t="s">
@@ -7261,16 +7388,13 @@
       </c>
     </row>
     <row r="37" spans="1:19" s="4" customFormat="1">
-      <c r="A37" s="5" t="s">
+      <c r="A37" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="B37" s="5"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="5"/>
+      <c r="B37" s="54"/>
+      <c r="C37" s="54"/>
+      <c r="D37" s="54"/>
       <c r="F37"/>
-      <c r="G37"/>
-      <c r="H37"/>
-      <c r="I37"/>
     </row>
     <row r="38" spans="1:19">
       <c r="A38" t="s">
@@ -7300,9 +7424,6 @@
         <v>0.21729799999999999</v>
       </c>
       <c r="F39" s="4"/>
-      <c r="G39" s="4"/>
-      <c r="H39" s="4"/>
-      <c r="I39" s="4"/>
     </row>
     <row r="40" spans="1:19">
       <c r="A40" t="s">
@@ -7333,12 +7454,12 @@
       </c>
     </row>
     <row r="43" spans="1:19">
-      <c r="A43" s="5" t="s">
+      <c r="A43" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="B43" s="5"/>
-      <c r="C43" s="5"/>
-      <c r="D43" s="5"/>
+      <c r="B43" s="54"/>
+      <c r="C43" s="54"/>
+      <c r="D43" s="54"/>
     </row>
     <row r="44" spans="1:19">
       <c r="A44" t="s">
@@ -7381,16 +7502,16 @@
       <c r="D46">
         <v>65.429282999999998</v>
       </c>
-      <c r="J46" s="5" t="s">
+      <c r="J46" s="54" t="s">
         <v>36</v>
       </c>
-      <c r="K46" s="5"/>
-      <c r="L46" s="5"/>
-      <c r="M46" s="5" t="s">
+      <c r="K46" s="54"/>
+      <c r="L46" s="54"/>
+      <c r="M46" s="54" t="s">
         <v>30</v>
       </c>
-      <c r="N46" s="5"/>
-      <c r="O46" s="5"/>
+      <c r="N46" s="54"/>
+      <c r="O46" s="54"/>
     </row>
     <row r="47" spans="1:19">
       <c r="A47" t="s">
@@ -7428,22 +7549,22 @@
       <c r="I48" t="s">
         <v>37</v>
       </c>
-      <c r="J48" s="7">
+      <c r="J48" s="6">
         <v>0.112495</v>
       </c>
-      <c r="K48" s="7">
+      <c r="K48" s="6">
         <v>4.0844250000000004</v>
       </c>
-      <c r="L48" s="7">
+      <c r="L48" s="6">
         <v>0.13058400000000001</v>
       </c>
-      <c r="M48" s="7">
+      <c r="M48" s="6">
         <v>9.5619999999999997E-2</v>
       </c>
-      <c r="N48" s="7">
+      <c r="N48" s="6">
         <v>2.4361000000000002</v>
       </c>
-      <c r="O48" s="7">
+      <c r="O48" s="6">
         <v>0.11275</v>
       </c>
       <c r="Q48">
@@ -7459,27 +7580,27 @@
         <v>1.7834000000000003E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:19" ht="17">
-      <c r="J49" s="7">
+    <row r="49" spans="1:24" ht="17">
+      <c r="J49" s="6">
         <v>0.112764</v>
       </c>
-      <c r="K49" s="7">
+      <c r="K49" s="6">
         <v>2.4292029999999998</v>
       </c>
-      <c r="L49" s="7">
+      <c r="L49" s="6">
         <v>0.12710099999999999</v>
       </c>
-      <c r="M49" s="7">
+      <c r="M49" s="6">
         <v>9.4140000000000001E-2</v>
       </c>
-      <c r="N49" s="7">
+      <c r="N49" s="6">
         <v>2.52034</v>
       </c>
-      <c r="O49" s="7">
+      <c r="O49" s="6">
         <v>0.11175</v>
       </c>
       <c r="Q49">
-        <f t="shared" ref="Q49:Q57" si="2">J49-M49</f>
+        <f>J49-M49</f>
         <v>1.8624000000000002E-2</v>
       </c>
       <c r="R49">
@@ -7491,33 +7612,33 @@
         <v>1.535099999999999E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:19" ht="17">
-      <c r="A50" s="5" t="s">
+    <row r="50" spans="1:24" ht="17">
+      <c r="A50" s="54" t="s">
         <v>34</v>
       </c>
-      <c r="B50" s="5"/>
-      <c r="C50" s="5"/>
-      <c r="D50" s="5"/>
-      <c r="J50" s="7">
+      <c r="B50" s="54"/>
+      <c r="C50" s="54"/>
+      <c r="D50" s="54"/>
+      <c r="J50" s="6">
         <v>0.112652</v>
       </c>
-      <c r="K50" s="7">
+      <c r="K50" s="6">
         <v>4.9240529999999998</v>
       </c>
-      <c r="L50" s="7">
+      <c r="L50" s="6">
         <v>0.13040399999999999</v>
       </c>
-      <c r="M50" s="7">
+      <c r="M50" s="6">
         <v>9.4310000000000005E-2</v>
       </c>
-      <c r="N50" s="7">
+      <c r="N50" s="6">
         <v>2.4138099999999998</v>
       </c>
-      <c r="O50" s="7">
+      <c r="O50" s="6">
         <v>0.11146</v>
       </c>
       <c r="Q50">
-        <f t="shared" si="2"/>
+        <f>J50-M50</f>
         <v>1.8341999999999997E-2</v>
       </c>
       <c r="R50">
@@ -7529,7 +7650,7 @@
         <v>1.8943999999999989E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:19">
+    <row r="51" spans="1:24">
       <c r="F51" s="1" t="s">
         <v>22</v>
       </c>
@@ -7564,7 +7685,7 @@
         <v>0.11198666666666668</v>
       </c>
       <c r="Q51">
-        <f t="shared" si="2"/>
+        <f>J51-M51</f>
         <v>1.7946999999999991E-2</v>
       </c>
       <c r="R51">
@@ -7576,7 +7697,7 @@
         <v>1.7376333333333327E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:19">
+    <row r="52" spans="1:24">
       <c r="A52" t="s">
         <v>31</v>
       </c>
@@ -7597,15 +7718,15 @@
         <v>2.198172999999997</v>
       </c>
       <c r="G52">
-        <f t="shared" ref="G52:H54" si="6">C58-C52</f>
+        <f>C58-C52</f>
         <v>2.6488720000000114</v>
       </c>
       <c r="H52">
-        <f t="shared" si="6"/>
+        <f>D58-D52</f>
         <v>10.538055</v>
       </c>
     </row>
-    <row r="53" spans="1:19">
+    <row r="53" spans="1:24">
       <c r="A53" t="s">
         <v>32</v>
       </c>
@@ -7622,19 +7743,19 @@
         <v>32</v>
       </c>
       <c r="F53">
-        <f t="shared" ref="F53:F54" si="7">B59-B53</f>
+        <f t="shared" ref="F53:F54" si="6">B59-B53</f>
         <v>1.1086200000000019</v>
       </c>
       <c r="G53">
-        <f t="shared" si="6"/>
+        <f>C59-C53</f>
         <v>2.5038760000000053</v>
       </c>
       <c r="H53">
-        <f t="shared" si="6"/>
+        <f>D59-D53</f>
         <v>10.096985000000004</v>
       </c>
     </row>
-    <row r="54" spans="1:19" ht="17">
+    <row r="54" spans="1:24" ht="17">
       <c r="A54" t="s">
         <v>33</v>
       </c>
@@ -7651,40 +7772,40 @@
         <v>33</v>
       </c>
       <c r="F54">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>-1.7112999999994827E-2</v>
       </c>
       <c r="G54">
-        <f t="shared" si="6"/>
+        <f>C60-C54</f>
         <v>0.45786599999999567</v>
       </c>
       <c r="H54">
-        <f t="shared" si="6"/>
+        <f>D60-D54</f>
         <v>8.568050999999997</v>
       </c>
       <c r="I54" t="s">
         <v>38</v>
       </c>
-      <c r="J54" s="7">
+      <c r="J54" s="6">
         <v>0.113817</v>
       </c>
-      <c r="K54" s="7">
+      <c r="K54" s="6">
         <v>2.2334350000000001</v>
       </c>
-      <c r="L54" s="7">
+      <c r="L54" s="6">
         <v>0.12876899999999999</v>
       </c>
-      <c r="M54" s="7">
+      <c r="M54" s="6">
         <v>9.9650000000000002E-2</v>
       </c>
-      <c r="N54" s="7">
+      <c r="N54" s="6">
         <v>2.3409399999999998</v>
       </c>
-      <c r="O54" s="7">
+      <c r="O54" s="6">
         <v>0.11244999999999999</v>
       </c>
       <c r="Q54">
-        <f t="shared" si="2"/>
+        <f>J54-M54</f>
         <v>1.4166999999999999E-2</v>
       </c>
       <c r="R54">
@@ -7696,27 +7817,27 @@
         <v>1.6319E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:19" ht="17">
-      <c r="J55" s="7">
+    <row r="55" spans="1:24" ht="17">
+      <c r="J55" s="6">
         <v>0.112804</v>
       </c>
-      <c r="K55" s="7">
+      <c r="K55" s="6">
         <v>2.179271</v>
       </c>
-      <c r="L55" s="7">
+      <c r="L55" s="6">
         <v>0.125195</v>
       </c>
-      <c r="M55" s="7">
+      <c r="M55" s="6">
         <v>9.5180000000000001E-2</v>
       </c>
-      <c r="N55" s="7">
+      <c r="N55" s="6">
         <v>2.3970500000000001</v>
       </c>
-      <c r="O55" s="7">
+      <c r="O55" s="6">
         <v>0.11203</v>
       </c>
       <c r="Q55">
-        <f t="shared" si="2"/>
+        <f>J55-M55</f>
         <v>1.7624000000000001E-2</v>
       </c>
       <c r="R55">
@@ -7728,27 +7849,27 @@
         <v>1.3164999999999996E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:19" ht="17">
-      <c r="J56" s="7">
+    <row r="56" spans="1:24" ht="17">
+      <c r="J56" s="6">
         <v>0.112635</v>
       </c>
-      <c r="K56" s="7">
+      <c r="K56" s="6">
         <v>2.2601230000000001</v>
       </c>
-      <c r="L56" s="7">
+      <c r="L56" s="6">
         <v>0.12784499999999999</v>
       </c>
-      <c r="M56" s="7">
+      <c r="M56" s="6">
         <v>9.4289999999999999E-2</v>
       </c>
-      <c r="N56" s="7">
+      <c r="N56" s="6">
         <v>2.7800099999999999</v>
       </c>
-      <c r="O56" s="7">
+      <c r="O56" s="6">
         <v>0.1133</v>
       </c>
       <c r="Q56">
-        <f t="shared" si="2"/>
+        <f>J56-M56</f>
         <v>1.8345E-2</v>
       </c>
       <c r="R56">
@@ -7760,39 +7881,39 @@
         <v>1.4544999999999988E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:19">
-      <c r="A57" s="5" t="s">
+    <row r="57" spans="1:24">
+      <c r="A57" s="54" t="s">
         <v>35</v>
       </c>
-      <c r="B57" s="5"/>
-      <c r="C57" s="5"/>
-      <c r="D57" s="5"/>
+      <c r="B57" s="54"/>
+      <c r="C57" s="54"/>
+      <c r="D57" s="54"/>
       <c r="J57">
         <f>AVERAGE(J54:J56)</f>
         <v>0.11308533333333333</v>
       </c>
       <c r="K57">
-        <f t="shared" ref="K57:O57" si="8">AVERAGE(K54:K56)</f>
+        <f t="shared" ref="K57:O57" si="7">AVERAGE(K54:K56)</f>
         <v>2.2242763333333335</v>
       </c>
       <c r="L57">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0.12726966666666664</v>
       </c>
       <c r="M57">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>9.6373333333333325E-2</v>
       </c>
       <c r="N57">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>2.5059999999999998</v>
       </c>
       <c r="O57">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0.11259333333333334</v>
       </c>
       <c r="Q57">
-        <f t="shared" si="2"/>
+        <f>J57-M57</f>
         <v>1.6712000000000005E-2</v>
       </c>
       <c r="R57">
@@ -7804,7 +7925,7 @@
         <v>1.4676333333333305E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:19">
+    <row r="58" spans="1:24">
       <c r="A58" t="s">
         <v>31</v>
       </c>
@@ -7818,7 +7939,7 @@
         <v>78.550514000000007</v>
       </c>
     </row>
-    <row r="59" spans="1:19">
+    <row r="59" spans="1:24">
       <c r="A59" t="s">
         <v>32</v>
       </c>
@@ -7831,13 +7952,13 @@
       <c r="D59">
         <v>75.720955000000004</v>
       </c>
-      <c r="I59" s="5" t="s">
+      <c r="I59" s="54" t="s">
         <v>44</v>
       </c>
-      <c r="J59" s="5"/>
-      <c r="K59" s="5"/>
-    </row>
-    <row r="60" spans="1:19">
+      <c r="J59" s="54"/>
+      <c r="K59" s="54"/>
+    </row>
+    <row r="60" spans="1:24">
       <c r="A60" t="s">
         <v>33</v>
       </c>
@@ -7857,7 +7978,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="61" spans="1:19">
+    <row r="61" spans="1:24">
       <c r="I61" t="s">
         <v>37</v>
       </c>
@@ -7870,7 +7991,7 @@
         <v>0.11198666666666668</v>
       </c>
     </row>
-    <row r="62" spans="1:19">
+    <row r="62" spans="1:24">
       <c r="I62" t="s">
         <v>38</v>
       </c>
@@ -7883,22 +8004,29 @@
         <v>0.11259333333333334</v>
       </c>
     </row>
-    <row r="63" spans="1:19">
-      <c r="A63" s="5" t="s">
+    <row r="63" spans="1:24">
+      <c r="A63" s="54" t="s">
         <v>45</v>
       </c>
-      <c r="B63" s="5"/>
-      <c r="C63" s="5"/>
-      <c r="D63" s="5"/>
-      <c r="O63" s="5" t="s">
+      <c r="B63" s="54"/>
+      <c r="C63" s="54"/>
+      <c r="D63" s="54"/>
+      <c r="O63" s="54" t="s">
         <v>66</v>
       </c>
-      <c r="P63" s="5"/>
-      <c r="Q63" s="5"/>
-      <c r="R63" s="5"/>
-      <c r="S63" s="5"/>
-    </row>
-    <row r="64" spans="1:19" ht="17">
+      <c r="P63" s="54"/>
+      <c r="Q63" s="54"/>
+      <c r="R63" s="54"/>
+      <c r="S63" s="54"/>
+      <c r="T63" s="54" t="s">
+        <v>65</v>
+      </c>
+      <c r="U63" s="54"/>
+      <c r="V63" s="54"/>
+      <c r="W63" s="54"/>
+      <c r="X63" s="4"/>
+    </row>
+    <row r="64" spans="1:24" ht="17">
       <c r="A64" t="s">
         <v>31</v>
       </c>
@@ -7914,7 +8042,7 @@
       <c r="I64" t="s">
         <v>43</v>
       </c>
-      <c r="P64" s="7" t="s">
+      <c r="P64" s="6" t="s">
         <v>54</v>
       </c>
       <c r="Q64" t="s">
@@ -7926,8 +8054,20 @@
       <c r="S64" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="65" spans="1:19" ht="17">
+      <c r="T64" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="U64" t="s">
+        <v>55</v>
+      </c>
+      <c r="V64" t="s">
+        <v>56</v>
+      </c>
+      <c r="W64" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="65" spans="1:23" ht="17">
       <c r="A65" t="s">
         <v>32</v>
       </c>
@@ -7943,7 +8083,7 @@
       <c r="I65" t="s">
         <v>42</v>
       </c>
-      <c r="O65" s="7" t="s">
+      <c r="O65" s="6" t="s">
         <v>58</v>
       </c>
       <c r="P65">
@@ -7958,8 +8098,20 @@
       <c r="S65">
         <v>206</v>
       </c>
-    </row>
-    <row r="66" spans="1:19" ht="17">
+      <c r="T65" s="6">
+        <v>0.81</v>
+      </c>
+      <c r="U65">
+        <v>0.9</v>
+      </c>
+      <c r="V65">
+        <v>0.85</v>
+      </c>
+      <c r="W65">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="66" spans="1:23" ht="17">
       <c r="A66" t="s">
         <v>33</v>
       </c>
@@ -7972,7 +8124,7 @@
       <c r="D66">
         <v>50.744587000000003</v>
       </c>
-      <c r="O66" s="7" t="s">
+      <c r="O66" s="6" t="s">
         <v>59</v>
       </c>
       <c r="P66">
@@ -7987,15 +8139,27 @@
       <c r="S66">
         <v>206</v>
       </c>
-    </row>
-    <row r="67" spans="1:19" ht="17">
-      <c r="A67" s="5" t="s">
+      <c r="T66" s="6">
+        <v>0.9</v>
+      </c>
+      <c r="U66">
+        <v>0.81</v>
+      </c>
+      <c r="V66">
+        <v>0.85</v>
+      </c>
+      <c r="W66">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="67" spans="1:23" ht="17">
+      <c r="A67" s="54" t="s">
         <v>46</v>
       </c>
-      <c r="B67" s="5"/>
-      <c r="C67" s="5"/>
-      <c r="D67" s="5"/>
-      <c r="O67" s="7" t="s">
+      <c r="B67" s="54"/>
+      <c r="C67" s="54"/>
+      <c r="D67" s="54"/>
+      <c r="O67" s="6" t="s">
         <v>60</v>
       </c>
       <c r="P67">
@@ -8010,8 +8174,20 @@
       <c r="S67">
         <v>412</v>
       </c>
-    </row>
-    <row r="68" spans="1:19">
+      <c r="T67" s="6">
+        <v>0.86</v>
+      </c>
+      <c r="U67">
+        <v>0.85</v>
+      </c>
+      <c r="V67">
+        <v>0.85</v>
+      </c>
+      <c r="W67">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="68" spans="1:23">
       <c r="A68" t="s">
         <v>31</v>
       </c>
@@ -8024,15 +8200,15 @@
       <c r="D68">
         <v>62.281650999999997</v>
       </c>
-      <c r="O68" s="5" t="s">
+      <c r="O68" s="54" t="s">
         <v>65</v>
       </c>
-      <c r="P68" s="5"/>
-      <c r="Q68" s="5"/>
-      <c r="R68" s="5"/>
-      <c r="S68" s="5"/>
-    </row>
-    <row r="69" spans="1:19" ht="17">
+      <c r="P68" s="54"/>
+      <c r="Q68" s="54"/>
+      <c r="R68" s="54"/>
+      <c r="S68" s="54"/>
+    </row>
+    <row r="69" spans="1:23" ht="17">
       <c r="A69" t="s">
         <v>32</v>
       </c>
@@ -8045,7 +8221,7 @@
       <c r="D69">
         <v>69.502548000000004</v>
       </c>
-      <c r="P69" s="7" t="s">
+      <c r="P69" s="6" t="s">
         <v>54</v>
       </c>
       <c r="Q69" t="s">
@@ -8058,7 +8234,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="70" spans="1:19" ht="17">
+    <row r="70" spans="1:23" ht="17">
       <c r="A70" t="s">
         <v>33</v>
       </c>
@@ -8071,10 +8247,10 @@
       <c r="D70">
         <v>45.809916999999999</v>
       </c>
-      <c r="O70" s="7" t="s">
+      <c r="O70" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="P70" s="7">
+      <c r="P70" s="6">
         <v>0.81</v>
       </c>
       <c r="Q70">
@@ -8087,19 +8263,19 @@
         <v>193</v>
       </c>
     </row>
-    <row r="71" spans="1:19" ht="18" thickBot="1">
-      <c r="A71" s="10"/>
-      <c r="B71" s="23"/>
-      <c r="C71" s="23"/>
-      <c r="D71" s="23"/>
-      <c r="E71" s="23"/>
-      <c r="F71" s="23"/>
-      <c r="G71" s="23"/>
-      <c r="H71" s="23"/>
-      <c r="O71" s="7" t="s">
+    <row r="71" spans="1:23" ht="18" thickBot="1">
+      <c r="A71" s="9"/>
+      <c r="B71" s="20"/>
+      <c r="C71" s="20"/>
+      <c r="D71" s="20"/>
+      <c r="E71" s="20"/>
+      <c r="F71" s="20"/>
+      <c r="G71" s="20"/>
+      <c r="H71" s="20"/>
+      <c r="O71" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="P71" s="7">
+      <c r="P71" s="6">
         <v>0.9</v>
       </c>
       <c r="Q71">
@@ -8111,26 +8287,27 @@
       <c r="S71">
         <v>218</v>
       </c>
-    </row>
-    <row r="72" spans="1:19" ht="19" thickTop="1" thickBot="1">
-      <c r="A72" s="50" t="s">
+      <c r="U71" s="5"/>
+    </row>
+    <row r="72" spans="1:23" ht="19" thickTop="1" thickBot="1">
+      <c r="A72" s="40" t="s">
         <v>48</v>
       </c>
-      <c r="B72" s="38"/>
-      <c r="C72" s="39" t="s">
+      <c r="B72" s="31"/>
+      <c r="C72" s="56" t="s">
         <v>37</v>
       </c>
-      <c r="D72" s="39"/>
-      <c r="E72" s="40"/>
-      <c r="F72" s="47" t="s">
+      <c r="D72" s="56"/>
+      <c r="E72" s="57"/>
+      <c r="F72" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="G72" s="39"/>
-      <c r="H72" s="40"/>
-      <c r="O72" s="7" t="s">
+      <c r="G72" s="52"/>
+      <c r="H72" s="53"/>
+      <c r="O72" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="P72" s="7">
+      <c r="P72" s="6">
         <v>0.86</v>
       </c>
       <c r="Q72">
@@ -8143,173 +8320,173 @@
         <v>411</v>
       </c>
     </row>
-    <row r="73" spans="1:19" ht="19" thickTop="1" thickBot="1">
-      <c r="A73" s="49" t="s">
+    <row r="73" spans="1:23" ht="19" thickTop="1" thickBot="1">
+      <c r="A73" s="39" t="s">
         <v>49</v>
       </c>
-      <c r="B73" s="35"/>
-      <c r="C73" s="36" t="s">
+      <c r="B73" s="28"/>
+      <c r="C73" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="D73" s="36" t="s">
+      <c r="D73" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="E73" s="37" t="s">
+      <c r="E73" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="F73" s="41" t="s">
+      <c r="F73" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="G73" s="36" t="s">
+      <c r="G73" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="H73" s="37" t="s">
+      <c r="H73" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="J73" s="7" t="s">
+      <c r="J73" s="6" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="74" spans="1:19" ht="17" thickTop="1">
-      <c r="A74" s="27" t="s">
+    <row r="74" spans="1:23" ht="17" thickTop="1">
+      <c r="A74" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="B74" s="30" t="s">
+      <c r="B74" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="C74" s="14">
+      <c r="C74" s="12">
         <v>86.987999000000002</v>
       </c>
-      <c r="D74" s="14">
+      <c r="D74" s="12">
         <v>77.105689999999996</v>
       </c>
-      <c r="E74" s="19">
+      <c r="E74" s="16">
         <v>68.012459000000007</v>
       </c>
-      <c r="F74" s="42">
+      <c r="F74" s="33">
         <v>89.186171999999999</v>
       </c>
-      <c r="G74" s="14">
+      <c r="G74" s="12">
         <v>79.754562000000007</v>
       </c>
-      <c r="H74" s="19">
+      <c r="H74" s="16">
         <v>78.550514000000007</v>
       </c>
     </row>
-    <row r="75" spans="1:19" ht="17">
-      <c r="A75" s="28"/>
-      <c r="B75" s="31" t="s">
+    <row r="75" spans="1:23" ht="17">
+      <c r="A75" s="43"/>
+      <c r="B75" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="C75" s="8">
+      <c r="C75" s="7">
         <v>86.00412</v>
       </c>
-      <c r="D75" s="8">
+      <c r="D75" s="7">
         <v>74.355941999999999</v>
       </c>
-      <c r="E75" s="22">
+      <c r="E75" s="19">
         <v>65.62397</v>
       </c>
-      <c r="F75" s="9">
+      <c r="F75" s="8">
         <v>87.112740000000002</v>
       </c>
-      <c r="G75" s="13">
+      <c r="G75" s="11">
         <v>76.859818000000004</v>
       </c>
-      <c r="H75" s="20">
+      <c r="H75" s="17">
         <v>75.720955000000004</v>
       </c>
-      <c r="J75" s="7" t="s">
+      <c r="J75" s="6" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="76" spans="1:19" ht="18" thickBot="1">
-      <c r="A76" s="29"/>
-      <c r="B76" s="32" t="s">
+    <row r="76" spans="1:23" ht="18" thickBot="1">
+      <c r="A76" s="44"/>
+      <c r="B76" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="C76" s="11">
+      <c r="C76" s="10">
         <v>75.447768999999994</v>
       </c>
-      <c r="D76" s="11">
+      <c r="D76" s="10">
         <v>63.742085000000003</v>
       </c>
-      <c r="E76" s="18">
+      <c r="E76" s="15">
         <v>54.334251000000002</v>
       </c>
-      <c r="F76" s="43">
+      <c r="F76" s="34">
         <v>75.430655999999999</v>
       </c>
-      <c r="G76" s="11">
+      <c r="G76" s="10">
         <v>64.199950999999999</v>
       </c>
-      <c r="H76" s="18">
+      <c r="H76" s="15">
         <v>62.902301999999999</v>
       </c>
-      <c r="J76" s="7" t="s">
+      <c r="J76" s="6" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="77" spans="1:19">
-      <c r="A77" s="15" t="s">
+    <row r="77" spans="1:23">
+      <c r="A77" s="45" t="s">
         <v>36</v>
       </c>
-      <c r="B77" s="33" t="s">
+      <c r="B77" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="C77" s="17">
+      <c r="C77" s="14">
         <v>69.597938999999997</v>
       </c>
-      <c r="D77" s="17">
+      <c r="D77" s="14">
         <v>65.982010000000002</v>
       </c>
-      <c r="E77" s="48">
+      <c r="E77" s="38">
         <v>59.284453999999997</v>
       </c>
-      <c r="F77" s="44">
+      <c r="F77" s="35">
         <v>77.520409000000001</v>
       </c>
-      <c r="G77" s="16">
+      <c r="G77" s="13">
         <v>67.733231000000004</v>
       </c>
-      <c r="H77" s="21">
+      <c r="H77" s="18">
         <v>62.281650999999997</v>
       </c>
-      <c r="N77" s="5" t="s">
+      <c r="N77" s="54" t="s">
         <v>36</v>
       </c>
-      <c r="O77" s="5"/>
-      <c r="P77" s="5"/>
-      <c r="Q77" s="5" t="s">
+      <c r="O77" s="54"/>
+      <c r="P77" s="54"/>
+      <c r="Q77" s="54" t="s">
         <v>30</v>
       </c>
-      <c r="R77" s="5"/>
-      <c r="S77" s="5"/>
-    </row>
-    <row r="78" spans="1:19" ht="17">
-      <c r="A78" s="12"/>
-      <c r="B78" s="31" t="s">
+      <c r="R77" s="54"/>
+      <c r="S77" s="54"/>
+    </row>
+    <row r="78" spans="1:23" ht="17">
+      <c r="A78" s="46"/>
+      <c r="B78" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="C78" s="13">
+      <c r="C78" s="11">
         <v>86.340369999999993</v>
       </c>
-      <c r="D78" s="13">
+      <c r="D78" s="11">
         <v>76.187859000000003</v>
       </c>
-      <c r="E78" s="20">
+      <c r="E78" s="17">
         <v>68.103294000000005</v>
       </c>
-      <c r="F78" s="45">
+      <c r="F78" s="36">
         <v>88.635024999999999</v>
       </c>
-      <c r="G78" s="8">
+      <c r="G78" s="7">
         <v>75.361214000000004</v>
       </c>
-      <c r="H78" s="22">
+      <c r="H78" s="19">
         <v>69.502548000000004</v>
       </c>
-      <c r="J78" s="7" t="s">
+      <c r="J78" s="6" t="s">
         <v>53</v>
       </c>
       <c r="N78" t="s">
@@ -8331,98 +8508,165 @@
         <v>41</v>
       </c>
     </row>
-    <row r="79" spans="1:19" ht="17" thickBot="1">
-      <c r="A79" s="26"/>
-      <c r="B79" s="34" t="s">
+    <row r="79" spans="1:23" ht="17" thickBot="1">
+      <c r="A79" s="47"/>
+      <c r="B79" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="C79" s="24">
+      <c r="C79" s="21">
         <v>73.632262999999995</v>
       </c>
-      <c r="D79" s="24">
+      <c r="D79" s="21">
         <v>58.473990999999998</v>
       </c>
-      <c r="E79" s="25">
+      <c r="E79" s="22">
         <v>50.744587000000003</v>
       </c>
-      <c r="F79" s="46">
+      <c r="F79" s="37">
         <v>68.620864999999995</v>
       </c>
-      <c r="G79" s="24">
+      <c r="G79" s="21">
         <v>49.455607999999998</v>
       </c>
-      <c r="H79" s="25">
+      <c r="H79" s="22">
         <v>45.809916999999999</v>
       </c>
       <c r="M79" t="s">
         <v>37</v>
       </c>
-      <c r="N79" s="51">
+      <c r="N79" s="41">
         <v>0.11263699999999999</v>
       </c>
-      <c r="O79" s="51">
+      <c r="O79" s="41">
         <v>3.8125603333333338</v>
       </c>
-      <c r="P79" s="51">
+      <c r="P79" s="41">
         <v>0.12936300000000001</v>
       </c>
-      <c r="Q79" s="51">
+      <c r="Q79" s="41">
         <v>9.4689999999999996E-2</v>
       </c>
-      <c r="R79" s="51">
+      <c r="R79" s="41">
         <v>2.45675</v>
       </c>
-      <c r="S79" s="51">
+      <c r="S79" s="41">
         <v>0.11198666666666668</v>
       </c>
     </row>
-    <row r="80" spans="1:19" ht="18" thickTop="1">
-      <c r="J80" s="7" t="s">
+    <row r="80" spans="1:23" ht="18" thickTop="1">
+      <c r="J80" s="6" t="s">
         <v>61</v>
       </c>
       <c r="M80" t="s">
         <v>38</v>
       </c>
-      <c r="N80" s="51">
+      <c r="N80" s="41">
         <v>0.11308533333333333</v>
       </c>
-      <c r="O80" s="51">
+      <c r="O80" s="41">
         <v>2.2242763333333335</v>
       </c>
-      <c r="P80" s="51">
+      <c r="P80" s="41">
         <v>0.12726966666666664</v>
       </c>
-      <c r="Q80" s="51">
+      <c r="Q80" s="41">
         <v>9.6373333333333325E-2</v>
       </c>
-      <c r="R80" s="51">
+      <c r="R80" s="41">
         <v>2.5059999999999998</v>
       </c>
-      <c r="S80" s="51">
+      <c r="S80" s="41">
         <v>0.11259333333333334</v>
       </c>
     </row>
-    <row r="82" spans="10:17" ht="17">
-      <c r="J82" s="7" t="s">
+    <row r="82" spans="1:17" ht="17">
+      <c r="J82" s="6" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="83" spans="10:17" ht="17">
-      <c r="J83" s="7" t="s">
+    <row r="83" spans="1:17" ht="17">
+      <c r="J83" s="6" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="85" spans="10:17" ht="17">
-      <c r="J85" s="7" t="s">
+    <row r="85" spans="1:17" ht="17">
+      <c r="J85" s="6" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="88" spans="10:17" ht="17">
-      <c r="J88" s="7" t="s">
+    <row r="86" spans="1:17">
+      <c r="A86" s="54" t="s">
+        <v>8</v>
+      </c>
+      <c r="B86" s="54"/>
+      <c r="C86" s="54"/>
+      <c r="D86" s="54"/>
+    </row>
+    <row r="87" spans="1:17">
+      <c r="A87" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="B87">
+        <v>66.309807000000006</v>
+      </c>
+      <c r="C87">
+        <v>60.556213</v>
+      </c>
+      <c r="D87">
+        <v>53.479140999999998</v>
+      </c>
+      <c r="N87" s="54" t="s">
+        <v>70</v>
+      </c>
+      <c r="O87" s="54"/>
+      <c r="P87" s="54"/>
+      <c r="Q87" s="54"/>
+    </row>
+    <row r="88" spans="1:17" ht="17">
+      <c r="A88" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="B88">
+        <v>50.308723000000001</v>
+      </c>
+      <c r="C88">
+        <v>46.726196000000002</v>
+      </c>
+      <c r="D88">
+        <v>41.245510000000003</v>
+      </c>
+      <c r="J88" s="6" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="89" spans="10:17">
+      <c r="N88" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="O88" t="s">
+        <v>55</v>
+      </c>
+      <c r="P88" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q88" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="89" spans="1:17" ht="18" thickBot="1">
+      <c r="A89" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="B89">
+        <v>34.161884000000001</v>
+      </c>
+      <c r="C89">
+        <v>30.576440999999999</v>
+      </c>
+      <c r="D89">
+        <v>28.982102999999999</v>
+      </c>
+      <c r="M89" s="6" t="s">
+        <v>58</v>
+      </c>
       <c r="N89">
         <v>0.52</v>
       </c>
@@ -8436,9 +8680,12 @@
         <v>206</v>
       </c>
     </row>
-    <row r="90" spans="10:17" ht="17">
-      <c r="J90" s="7" t="s">
+    <row r="90" spans="1:17" ht="17">
+      <c r="J90" s="6" t="s">
         <v>67</v>
+      </c>
+      <c r="M90" s="6" t="s">
+        <v>59</v>
       </c>
       <c r="N90">
         <v>0.51</v>
@@ -8453,9 +8700,12 @@
         <v>206</v>
       </c>
     </row>
-    <row r="91" spans="10:17" ht="17">
-      <c r="J91" s="7" t="s">
+    <row r="91" spans="1:17" ht="17">
+      <c r="J91" s="6" t="s">
         <v>68</v>
+      </c>
+      <c r="M91" s="6" t="s">
+        <v>60</v>
       </c>
       <c r="N91">
         <v>0.51</v>
@@ -8470,38 +8720,547 @@
         <v>412</v>
       </c>
     </row>
-    <row r="93" spans="10:17" ht="17">
-      <c r="J93" s="7" t="s">
+    <row r="92" spans="1:17">
+      <c r="B92" s="54" t="s">
+        <v>8</v>
+      </c>
+      <c r="C92" s="54"/>
+      <c r="D92" s="54"/>
+      <c r="E92" s="54"/>
+    </row>
+    <row r="93" spans="1:17" ht="18" thickBot="1">
+      <c r="A93" s="39" t="s">
+        <v>49</v>
+      </c>
+      <c r="B93" s="28"/>
+      <c r="C93" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="D93" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="E93" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="J93" s="6" t="s">
         <v>69</v>
       </c>
     </row>
+    <row r="94" spans="1:17" ht="17" thickTop="1">
+      <c r="A94" s="42" t="s">
+        <v>30</v>
+      </c>
+      <c r="B94" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="C94">
+        <v>66.309807000000006</v>
+      </c>
+      <c r="D94">
+        <v>60.556213</v>
+      </c>
+      <c r="E94">
+        <v>53.479140999999998</v>
+      </c>
+    </row>
+    <row r="95" spans="1:17">
+      <c r="A95" s="43"/>
+      <c r="B95" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="C95">
+        <v>50.308723000000001</v>
+      </c>
+      <c r="D95">
+        <v>46.726196000000002</v>
+      </c>
+      <c r="E95">
+        <v>41.245510000000003</v>
+      </c>
+    </row>
+    <row r="96" spans="1:17" ht="17" thickBot="1">
+      <c r="A96" s="44"/>
+      <c r="B96" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="C96">
+        <v>34.161884000000001</v>
+      </c>
+      <c r="D96">
+        <v>30.576440999999999</v>
+      </c>
+      <c r="E96">
+        <v>28.982102999999999</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
+      <c r="A97" s="45" t="s">
+        <v>36</v>
+      </c>
+      <c r="B97" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="C97" s="14">
+        <v>69.597938999999997</v>
+      </c>
+      <c r="D97" s="14">
+        <v>65.982010000000002</v>
+      </c>
+      <c r="E97" s="38">
+        <v>59.284453999999997</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
+      <c r="A98" s="46"/>
+      <c r="B98" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="C98" s="11">
+        <v>86.340369999999993</v>
+      </c>
+      <c r="D98" s="11">
+        <v>76.187859000000003</v>
+      </c>
+      <c r="E98" s="17">
+        <v>68.103294000000005</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" ht="17" thickBot="1">
+      <c r="A99" s="47"/>
+      <c r="B99" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="C99" s="21">
+        <v>73.632262999999995</v>
+      </c>
+      <c r="D99" s="21">
+        <v>58.473990999999998</v>
+      </c>
+      <c r="E99" s="22">
+        <v>50.744587000000003</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" ht="17" thickTop="1"/>
+    <row r="102" spans="1:8" ht="17" thickBot="1"/>
+    <row r="103" spans="1:8" ht="18" thickTop="1" thickBot="1">
+      <c r="A103" s="40" t="s">
+        <v>48</v>
+      </c>
+      <c r="B103" s="48" t="s">
+        <v>71</v>
+      </c>
+      <c r="C103" s="49"/>
+      <c r="D103" s="49"/>
+      <c r="E103" s="50"/>
+      <c r="F103" s="51" t="s">
+        <v>72</v>
+      </c>
+      <c r="G103" s="52"/>
+      <c r="H103" s="53"/>
+    </row>
+    <row r="104" spans="1:8" ht="18" thickTop="1" thickBot="1">
+      <c r="A104" s="39" t="s">
+        <v>49</v>
+      </c>
+      <c r="B104" s="28"/>
+      <c r="C104" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="D104" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="E104" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="F104" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="G104" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="H104" s="30" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" ht="17" thickTop="1">
+      <c r="A105" s="42" t="s">
+        <v>30</v>
+      </c>
+      <c r="B105" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="C105" s="12">
+        <v>86.987999000000002</v>
+      </c>
+      <c r="D105" s="12">
+        <v>77.105689999999996</v>
+      </c>
+      <c r="E105" s="16">
+        <v>68.012459000000007</v>
+      </c>
+      <c r="F105" s="33">
+        <v>41.648921999999999</v>
+      </c>
+      <c r="G105" s="12">
+        <v>40.789223</v>
+      </c>
+      <c r="H105" s="16">
+        <v>37.975712000000001</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8">
+      <c r="A106" s="43"/>
+      <c r="B106" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="C106" s="7">
+        <v>86.00412</v>
+      </c>
+      <c r="D106" s="7">
+        <v>74.355941999999999</v>
+      </c>
+      <c r="E106" s="19">
+        <v>65.62397</v>
+      </c>
+      <c r="F106" s="8">
+        <v>38.399113</v>
+      </c>
+      <c r="G106" s="11">
+        <v>35.766421999999999</v>
+      </c>
+      <c r="H106" s="17">
+        <v>35.053738000000003</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" ht="17" thickBot="1">
+      <c r="A107" s="44"/>
+      <c r="B107" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="C107" s="10">
+        <v>75.447768999999994</v>
+      </c>
+      <c r="D107" s="10">
+        <v>63.742085000000003</v>
+      </c>
+      <c r="E107" s="15">
+        <v>54.334251000000002</v>
+      </c>
+      <c r="F107" s="34">
+        <v>30.298995999999999</v>
+      </c>
+      <c r="G107" s="10">
+        <v>28.810305</v>
+      </c>
+      <c r="H107" s="15">
+        <v>27.585851999999999</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8">
+      <c r="A108" s="45" t="s">
+        <v>36</v>
+      </c>
+      <c r="B108" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="C108">
+        <v>65.951279</v>
+      </c>
+      <c r="D108">
+        <v>56.683436999999998</v>
+      </c>
+      <c r="E108">
+        <v>55.972510999999997</v>
+      </c>
+      <c r="F108">
+        <v>66.309807000000006</v>
+      </c>
+      <c r="G108">
+        <v>60.556213</v>
+      </c>
+      <c r="H108">
+        <v>53.479140999999998</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8">
+      <c r="A109" s="46"/>
+      <c r="B109" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="C109">
+        <v>81.242408999999995</v>
+      </c>
+      <c r="D109">
+        <v>70.672707000000003</v>
+      </c>
+      <c r="E109">
+        <v>65.347594999999998</v>
+      </c>
+      <c r="F109">
+        <v>50.308723000000001</v>
+      </c>
+      <c r="G109">
+        <v>46.726196000000002</v>
+      </c>
+      <c r="H109">
+        <v>41.245510000000003</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" ht="17" thickBot="1">
+      <c r="A110" s="47"/>
+      <c r="B110" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="C110">
+        <v>40.000149</v>
+      </c>
+      <c r="D110">
+        <v>34.892158999999999</v>
+      </c>
+      <c r="E110">
+        <v>31.376111999999999</v>
+      </c>
+      <c r="F110">
+        <v>34.161884000000001</v>
+      </c>
+      <c r="G110">
+        <v>30.576440999999999</v>
+      </c>
+      <c r="H110">
+        <v>28.982102999999999</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" ht="17" thickTop="1"/>
+    <row r="118" spans="1:10">
+      <c r="F118" t="s">
+        <v>73</v>
+      </c>
+      <c r="G118">
+        <v>56.683436999999998</v>
+      </c>
+      <c r="H118">
+        <v>55.972510999999997</v>
+      </c>
+      <c r="J118" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10">
+      <c r="A119" t="s">
+        <v>78</v>
+      </c>
+      <c r="F119" t="s">
+        <v>74</v>
+      </c>
+      <c r="G119">
+        <v>70.672707000000003</v>
+      </c>
+      <c r="H119">
+        <v>65.347594999999998</v>
+      </c>
+      <c r="J119" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10">
+      <c r="F120" t="s">
+        <v>75</v>
+      </c>
+      <c r="G120">
+        <v>34.892158999999999</v>
+      </c>
+      <c r="H120">
+        <v>31.376111999999999</v>
+      </c>
+      <c r="J120" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10">
+      <c r="F121" t="s">
+        <v>76</v>
+      </c>
+      <c r="J121" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10">
+      <c r="A122" t="s">
+        <v>79</v>
+      </c>
+      <c r="B122" t="s">
+        <v>81</v>
+      </c>
+      <c r="C122" t="s">
+        <v>88</v>
+      </c>
+      <c r="D122" t="s">
+        <v>44</v>
+      </c>
+      <c r="F122" t="s">
+        <v>77</v>
+      </c>
+      <c r="J122" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10">
+      <c r="A123" t="s">
+        <v>36</v>
+      </c>
+      <c r="B123" t="s">
+        <v>84</v>
+      </c>
+      <c r="C123" t="s">
+        <v>89</v>
+      </c>
+      <c r="D123" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10">
+      <c r="A124" t="s">
+        <v>30</v>
+      </c>
+      <c r="B124" t="s">
+        <v>85</v>
+      </c>
+      <c r="C124" t="s">
+        <v>90</v>
+      </c>
+      <c r="D124" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10">
+      <c r="A125" t="s">
+        <v>80</v>
+      </c>
+      <c r="B125" t="s">
+        <v>85</v>
+      </c>
+      <c r="C125" t="s">
+        <v>89</v>
+      </c>
+      <c r="D125" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10">
+      <c r="A126" t="s">
+        <v>82</v>
+      </c>
+      <c r="B126" t="s">
+        <v>86</v>
+      </c>
+      <c r="C126" t="s">
+        <v>90</v>
+      </c>
+      <c r="D126" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10">
+      <c r="A127" t="s">
+        <v>83</v>
+      </c>
+      <c r="B127" t="s">
+        <v>87</v>
+      </c>
+      <c r="C127" t="s">
+        <v>90</v>
+      </c>
+      <c r="D127" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10">
+      <c r="G128" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="129" spans="7:7">
+      <c r="G129" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="130" spans="7:7">
+      <c r="G130" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="131" spans="7:7">
+      <c r="G131" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="132" spans="7:7">
+      <c r="G132" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="133" spans="7:7">
+      <c r="G133" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="134" spans="7:7">
+      <c r="G134" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="135" spans="7:7">
+      <c r="G135" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="136" spans="7:7">
+      <c r="G136" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="137" spans="7:7">
+      <c r="G137" t="s">
+        <v>102</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="25">
-    <mergeCell ref="O63:S63"/>
-    <mergeCell ref="O68:S68"/>
-    <mergeCell ref="N77:P77"/>
-    <mergeCell ref="Q77:S77"/>
+  <mergeCells count="35">
     <mergeCell ref="C72:E72"/>
     <mergeCell ref="F72:H72"/>
-    <mergeCell ref="A74:A76"/>
-    <mergeCell ref="A77:A79"/>
-    <mergeCell ref="A50:D50"/>
-    <mergeCell ref="A57:D57"/>
-    <mergeCell ref="J46:L46"/>
-    <mergeCell ref="M46:O46"/>
     <mergeCell ref="A31:D31"/>
     <mergeCell ref="F1:I1"/>
     <mergeCell ref="F8:I8"/>
     <mergeCell ref="A37:D37"/>
     <mergeCell ref="A43:D43"/>
-    <mergeCell ref="A63:D63"/>
-    <mergeCell ref="A67:D67"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A7:D7"/>
     <mergeCell ref="A13:D13"/>
     <mergeCell ref="A19:D19"/>
     <mergeCell ref="A25:D25"/>
+    <mergeCell ref="N87:Q87"/>
+    <mergeCell ref="T63:W63"/>
+    <mergeCell ref="A86:D86"/>
     <mergeCell ref="I59:K59"/>
+    <mergeCell ref="J46:L46"/>
+    <mergeCell ref="M46:O46"/>
+    <mergeCell ref="A74:A76"/>
+    <mergeCell ref="A77:A79"/>
+    <mergeCell ref="A50:D50"/>
+    <mergeCell ref="A57:D57"/>
+    <mergeCell ref="A63:D63"/>
+    <mergeCell ref="A67:D67"/>
+    <mergeCell ref="O63:S63"/>
+    <mergeCell ref="O68:S68"/>
+    <mergeCell ref="N77:P77"/>
+    <mergeCell ref="Q77:S77"/>
+    <mergeCell ref="A105:A107"/>
+    <mergeCell ref="A108:A110"/>
+    <mergeCell ref="B103:E103"/>
+    <mergeCell ref="F103:H103"/>
+    <mergeCell ref="B92:E92"/>
+    <mergeCell ref="A94:A96"/>
+    <mergeCell ref="A97:A99"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0.39370078740157505" bottom="0.39370078740157505" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/Report/Results.xlsx
+++ b/Report/Results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jones/Desktop/Thesis/Report/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AC4EE51-03E3-4842-9F6E-CF62C25B5792}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C26708D0-C7AD-1349-9FCB-B59087309007}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="111">
   <si>
     <t>Batch Size 2 Alpha 1 Beta 10 Learning Rate 0.0010</t>
   </si>
@@ -335,6 +335,24 @@
   </si>
   <si>
     <t>3s</t>
+  </si>
+  <si>
+    <t>Non-Urban</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Urban  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Min </t>
+  </si>
+  <si>
+    <t>Max</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Model</t>
   </si>
 </sst>
 </file>
@@ -345,7 +363,7 @@
     <numFmt numFmtId="164" formatCode="[$£-809]#,##0.00;[Red]&quot;-&quot;[$£-809]#,##0.00"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="8">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -384,6 +402,17 @@
       <color rgb="FF000000"/>
       <name val="Liberation Sans"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Var(--jp-content-font-family)"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -823,7 +852,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -922,6 +951,11 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Heading" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -4561,10 +4595,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AMJ137"/>
+  <dimension ref="A1:AMJ166"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C130" sqref="C130"/>
+    <sheetView tabSelected="1" topLeftCell="A145" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="A164" sqref="A164"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -8899,13 +8933,13 @@
         <v>68.012459000000007</v>
       </c>
       <c r="F105" s="33">
-        <v>41.648921999999999</v>
+        <v>56.214416999999997</v>
       </c>
       <c r="G105" s="12">
-        <v>40.789223</v>
+        <v>51.969517000000003</v>
       </c>
       <c r="H105" s="16">
-        <v>37.975712000000001</v>
+        <v>46.578246999999998</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -8923,13 +8957,13 @@
         <v>65.62397</v>
       </c>
       <c r="F106" s="8">
-        <v>38.399113</v>
+        <v>50.943680000000001</v>
       </c>
       <c r="G106" s="11">
-        <v>35.766421999999999</v>
+        <v>49.857227000000002</v>
       </c>
       <c r="H106" s="17">
-        <v>35.053738000000003</v>
+        <v>44.704524999999997</v>
       </c>
     </row>
     <row r="107" spans="1:8" ht="17" thickBot="1">
@@ -8947,13 +8981,13 @@
         <v>54.334251000000002</v>
       </c>
       <c r="F107" s="34">
-        <v>30.298995999999999</v>
+        <v>48.757491999999999</v>
       </c>
       <c r="G107" s="10">
-        <v>28.810305</v>
+        <v>44.843589999999999</v>
       </c>
       <c r="H107" s="15">
-        <v>27.585851999999999</v>
+        <v>43.014023000000002</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -9179,55 +9213,363 @@
         <v>93</v>
       </c>
     </row>
-    <row r="129" spans="7:7">
+    <row r="129" spans="1:8">
       <c r="G129" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="130" spans="7:7">
+    <row r="130" spans="1:8">
       <c r="G130" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="131" spans="7:7">
+    <row r="131" spans="1:8">
       <c r="G131" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="132" spans="7:7">
+    <row r="132" spans="1:8">
       <c r="G132" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="133" spans="7:7">
+    <row r="133" spans="1:8">
       <c r="G133" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="134" spans="7:7">
+    <row r="134" spans="1:8">
       <c r="G134" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="135" spans="7:7">
+    <row r="135" spans="1:8">
       <c r="G135" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="136" spans="7:7">
+    <row r="136" spans="1:8">
       <c r="G136" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="137" spans="7:7">
+    <row r="137" spans="1:8">
       <c r="G137" t="s">
         <v>102</v>
       </c>
     </row>
+    <row r="144" spans="1:8" ht="17" thickBot="1">
+      <c r="A144" s="58" t="s">
+        <v>72</v>
+      </c>
+      <c r="B144" s="58"/>
+      <c r="C144" s="58"/>
+      <c r="D144" s="58"/>
+      <c r="E144" s="58"/>
+      <c r="F144" s="58"/>
+      <c r="G144" s="58"/>
+      <c r="H144" s="58"/>
+    </row>
+    <row r="145" spans="1:8" ht="18" thickTop="1" thickBot="1">
+      <c r="A145" s="40" t="s">
+        <v>48</v>
+      </c>
+      <c r="B145" s="48" t="s">
+        <v>37</v>
+      </c>
+      <c r="C145" s="49"/>
+      <c r="D145" s="49"/>
+      <c r="E145" s="50"/>
+      <c r="F145" s="51" t="s">
+        <v>105</v>
+      </c>
+      <c r="G145" s="52"/>
+      <c r="H145" s="53"/>
+    </row>
+    <row r="146" spans="1:8" ht="18" thickTop="1" thickBot="1">
+      <c r="A146" s="39" t="s">
+        <v>49</v>
+      </c>
+      <c r="B146" s="28"/>
+      <c r="C146" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="D146" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="E146" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="F146" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="G146" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="H146" s="30" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" ht="18" thickTop="1">
+      <c r="A147" s="42" t="s">
+        <v>30</v>
+      </c>
+      <c r="B147" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="C147" s="12">
+        <v>78.626632999999998</v>
+      </c>
+      <c r="D147" s="12">
+        <v>77.407684000000003</v>
+      </c>
+      <c r="E147" s="6">
+        <v>70.029228000000003</v>
+      </c>
+      <c r="F147" s="6">
+        <v>76.096976999999995</v>
+      </c>
+      <c r="G147" s="6">
+        <v>70.946465000000003</v>
+      </c>
+      <c r="H147" s="6">
+        <v>71.205275999999998</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" ht="17">
+      <c r="A148" s="43"/>
+      <c r="B148" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="C148" s="6">
+        <v>80.880447000000004</v>
+      </c>
+      <c r="D148" s="6">
+        <v>80.393105000000006</v>
+      </c>
+      <c r="E148" s="6">
+        <v>79.296593000000001</v>
+      </c>
+      <c r="F148" s="6">
+        <v>77.806831000000003</v>
+      </c>
+      <c r="G148" s="6">
+        <v>77.654358000000002</v>
+      </c>
+      <c r="H148" s="6">
+        <v>71.792923000000002</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" ht="18" thickBot="1">
+      <c r="A149" s="44"/>
+      <c r="B149" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="C149" s="6">
+        <v>80.649719000000005</v>
+      </c>
+      <c r="D149" s="6">
+        <v>80.142876000000001</v>
+      </c>
+      <c r="E149" s="6">
+        <v>79.056777999999994</v>
+      </c>
+      <c r="F149" s="6">
+        <v>77.538368000000006</v>
+      </c>
+      <c r="G149" s="6">
+        <v>71.868483999999995</v>
+      </c>
+      <c r="H149" s="6">
+        <v>71.564284999999998</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" ht="17">
+      <c r="A150" s="45" t="s">
+        <v>36</v>
+      </c>
+      <c r="B150" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="C150" s="6">
+        <v>72.129386999999994</v>
+      </c>
+      <c r="D150" s="6">
+        <v>65.245384000000001</v>
+      </c>
+      <c r="E150" s="6">
+        <v>65.508232000000007</v>
+      </c>
+      <c r="F150" s="6">
+        <v>84.218406999999999</v>
+      </c>
+      <c r="G150" s="6">
+        <v>76.528319999999994</v>
+      </c>
+      <c r="H150" s="6">
+        <v>76.593802999999994</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" ht="17">
+      <c r="A151" s="46"/>
+      <c r="B151" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="C151" s="6">
+        <v>74.766677999999999</v>
+      </c>
+      <c r="D151" s="6">
+        <v>73.944068999999999</v>
+      </c>
+      <c r="E151" s="6">
+        <v>74.138587999999999</v>
+      </c>
+      <c r="F151" s="6">
+        <v>89.830275999999998</v>
+      </c>
+      <c r="G151" s="6">
+        <v>80.201164000000006</v>
+      </c>
+      <c r="H151" s="6">
+        <v>80.114814999999993</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" ht="18" thickBot="1">
+      <c r="A152" s="47"/>
+      <c r="B152" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="C152" s="6">
+        <v>71.177627999999999</v>
+      </c>
+      <c r="D152" s="6">
+        <v>64.247558999999995</v>
+      </c>
+      <c r="E152" s="6">
+        <v>64.181449999999998</v>
+      </c>
+      <c r="F152" s="6">
+        <v>87.206612000000007</v>
+      </c>
+      <c r="G152" s="6">
+        <v>77.964493000000004</v>
+      </c>
+      <c r="H152" s="6">
+        <v>78.036652000000004</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" ht="17" thickTop="1"/>
+    <row r="157" spans="1:8">
+      <c r="B157" t="s">
+        <v>107</v>
+      </c>
+      <c r="C157" t="s">
+        <v>108</v>
+      </c>
+      <c r="D157" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" ht="17">
+      <c r="A158" t="s">
+        <v>106</v>
+      </c>
+      <c r="B158" s="6">
+        <v>4612.5</v>
+      </c>
+      <c r="C158" s="6">
+        <v>14832</v>
+      </c>
+      <c r="D158" s="6">
+        <v>14474.911504</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" ht="17">
+      <c r="A159" t="s">
+        <v>38</v>
+      </c>
+      <c r="B159" s="6">
+        <v>4608.5</v>
+      </c>
+      <c r="C159" s="6">
+        <v>14320</v>
+      </c>
+      <c r="D159" s="6">
+        <v>14078.132721</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5">
+      <c r="B163" s="54" t="s">
+        <v>37</v>
+      </c>
+      <c r="C163" s="54"/>
+      <c r="D163" s="54" t="s">
+        <v>38</v>
+      </c>
+      <c r="E163" s="54"/>
+    </row>
+    <row r="164" spans="1:5">
+      <c r="A164" t="s">
+        <v>110</v>
+      </c>
+      <c r="B164" t="s">
+        <v>108</v>
+      </c>
+      <c r="C164" t="s">
+        <v>109</v>
+      </c>
+      <c r="D164" t="s">
+        <v>108</v>
+      </c>
+      <c r="E164" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5">
+      <c r="A165" t="s">
+        <v>30</v>
+      </c>
+      <c r="B165" s="59">
+        <v>14832</v>
+      </c>
+      <c r="C165" s="59">
+        <v>14762.815634000001</v>
+      </c>
+      <c r="D165" s="60">
+        <v>14320</v>
+      </c>
+      <c r="E165" s="59">
+        <v>14241.497496</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5">
+      <c r="A166" t="s">
+        <v>36</v>
+      </c>
+      <c r="B166" s="59">
+        <v>14832</v>
+      </c>
+      <c r="C166" s="59">
+        <v>14031.075091999999</v>
+      </c>
+      <c r="D166" s="59">
+        <v>14832</v>
+      </c>
+      <c r="E166" s="59">
+        <v>13808.981053</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="35">
+  <mergeCells count="42">
+    <mergeCell ref="A150:A152"/>
+    <mergeCell ref="A144:H144"/>
+    <mergeCell ref="B163:C163"/>
+    <mergeCell ref="D163:E163"/>
     <mergeCell ref="C72:E72"/>
     <mergeCell ref="F72:H72"/>
+    <mergeCell ref="B145:E145"/>
+    <mergeCell ref="F145:H145"/>
+    <mergeCell ref="A147:A149"/>
     <mergeCell ref="A31:D31"/>
     <mergeCell ref="F1:I1"/>
     <mergeCell ref="F8:I8"/>

--- a/Report/Results.xlsx
+++ b/Report/Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jones/Desktop/Thesis/Report/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3228EB59-5AC3-2D4E-9C2A-FFABCCD8553E}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6935FEAB-3811-9246-A741-20E9EE761053}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="103">
   <si>
     <t>Batch Size 2 Alpha 1 Beta 10 Learning Rate 0.0010</t>
   </si>
@@ -49,34 +49,10 @@
     <t xml:space="preserve">Pedestrian default </t>
   </si>
   <si>
-    <t>pedestrian_detection AP</t>
-  </si>
-  <si>
-    <t>pedestrian_orientation AP</t>
-  </si>
-  <si>
-    <t>pedestrian_detection_ground</t>
-  </si>
-  <si>
-    <t>pedestrian_detection_3d AP</t>
-  </si>
-  <si>
     <t>pedestrian default batch _size 5</t>
   </si>
   <si>
     <t>Default Cyclist</t>
-  </si>
-  <si>
-    <t>cyclist_detection AP</t>
-  </si>
-  <si>
-    <t>cyclist_orientation AP</t>
-  </si>
-  <si>
-    <t>cyclist_detection_ground</t>
-  </si>
-  <si>
-    <t>cyclist_detection_3d AP</t>
   </si>
   <si>
     <t>Default Urban Car</t>
@@ -422,7 +398,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="31">
+  <borders count="30">
     <border>
       <left/>
       <right/>
@@ -748,36 +724,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thick">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thick">
-        <color indexed="64"/>
-      </right>
-      <top style="thick">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color indexed="64"/>
@@ -840,6 +786,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -852,7 +811,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -896,13 +855,48 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -912,50 +906,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Heading" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -4597,8 +4553,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AMJ166"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H55" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="O63" sqref="O63:S67"/>
+    <sheetView tabSelected="1" topLeftCell="A107" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="B93" sqref="B93:E96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -4614,31 +4570,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1024" ht="18" customHeight="1">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
       <c r="E1" s="1"/>
-      <c r="F1" s="55" t="s">
-        <v>19</v>
-      </c>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
-      <c r="I1" s="55"/>
+      <c r="F1" s="58" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
@@ -5653,7 +5609,7 @@
     </row>
     <row r="2" spans="1:1024">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="B2">
         <v>66.694275000000005</v>
@@ -5666,16 +5622,16 @@
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="J2" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="K2">
         <f t="shared" ref="K2:M5" si="0">ABS(G3-G10)</f>
@@ -5696,7 +5652,7 @@
     </row>
     <row r="3" spans="1:1024">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="B3">
         <v>29.60228</v>
@@ -5720,7 +5676,7 @@
         <v>59.916339999999998</v>
       </c>
       <c r="J3" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="K3">
         <f t="shared" si="0"/>
@@ -5741,7 +5697,7 @@
     </row>
     <row r="4" spans="1:1024">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="B4">
         <v>83.221396999999996</v>
@@ -5765,7 +5721,7 @@
         <v>24.349730999999998</v>
       </c>
       <c r="J4" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="K4">
         <f t="shared" si="0"/>
@@ -5786,7 +5742,7 @@
     </row>
     <row r="5" spans="1:1024">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="B5">
         <v>44.193409000000003</v>
@@ -5810,7 +5766,7 @@
         <v>65.815987000000007</v>
       </c>
       <c r="J5" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="K5">
         <f t="shared" si="0"/>
@@ -5844,12 +5800,12 @@
       </c>
     </row>
     <row r="7" spans="1:1024" ht="18" customHeight="1">
-      <c r="A7" s="55" t="s">
+      <c r="A7" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="55"/>
-      <c r="C7" s="55"/>
-      <c r="D7" s="55"/>
+      <c r="B7" s="58"/>
+      <c r="C7" s="58"/>
+      <c r="D7" s="58"/>
       <c r="E7" s="3"/>
       <c r="J7" s="3"/>
       <c r="N7" s="3"/>
@@ -6866,7 +6822,7 @@
     </row>
     <row r="8" spans="1:1024">
       <c r="A8" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="B8">
         <v>65.951279</v>
@@ -6877,16 +6833,16 @@
       <c r="D8">
         <v>55.972510999999997</v>
       </c>
-      <c r="F8" s="55" t="s">
-        <v>20</v>
-      </c>
-      <c r="G8" s="55"/>
-      <c r="H8" s="55"/>
-      <c r="I8" s="55"/>
+      <c r="F8" s="58" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="58"/>
+      <c r="H8" s="58"/>
+      <c r="I8" s="58"/>
     </row>
     <row r="9" spans="1:1024">
       <c r="A9" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="B9">
         <v>29.448753</v>
@@ -6899,18 +6855,18 @@
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:1024">
       <c r="A10" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="B10">
         <v>81.242408999999995</v>
@@ -6936,7 +6892,7 @@
     </row>
     <row r="11" spans="1:1024">
       <c r="A11" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="B11">
         <v>40.000149</v>
@@ -6975,12 +6931,12 @@
       </c>
     </row>
     <row r="13" spans="1:1024" s="4" customFormat="1">
-      <c r="A13" s="54" t="s">
+      <c r="A13" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="54"/>
-      <c r="C13" s="54"/>
-      <c r="D13" s="54"/>
+      <c r="B13" s="48"/>
+      <c r="C13" s="48"/>
+      <c r="D13" s="48"/>
       <c r="F13" t="s">
         <v>4</v>
       </c>
@@ -6996,7 +6952,7 @@
     </row>
     <row r="14" spans="1:1024">
       <c r="A14" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="B14">
         <v>54.131399999999999</v>
@@ -7010,7 +6966,7 @@
     </row>
     <row r="15" spans="1:1024">
       <c r="A15" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="B15">
         <v>24.368808999999999</v>
@@ -7028,7 +6984,7 @@
     </row>
     <row r="16" spans="1:1024">
       <c r="A16" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="B16">
         <v>67.788600000000002</v>
@@ -7040,7 +6996,7 @@
         <v>57.110560999999997</v>
       </c>
       <c r="F16" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="G16">
         <v>69.539398000000006</v>
@@ -7054,7 +7010,7 @@
     </row>
     <row r="17" spans="1:13">
       <c r="A17" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="B17">
         <v>27.949508999999999</v>
@@ -7066,7 +7022,7 @@
         <v>23.919827000000002</v>
       </c>
       <c r="F17" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="G17">
         <v>28.43796</v>
@@ -7080,7 +7036,7 @@
     </row>
     <row r="18" spans="1:13">
       <c r="F18" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="G18">
         <v>86.777457999999996</v>
@@ -7093,14 +7049,14 @@
       </c>
     </row>
     <row r="19" spans="1:13" s="4" customFormat="1">
-      <c r="A19" s="54" t="s">
+      <c r="A19" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="B19" s="54"/>
-      <c r="C19" s="54"/>
-      <c r="D19" s="54"/>
+      <c r="B19" s="48"/>
+      <c r="C19" s="48"/>
+      <c r="D19" s="48"/>
       <c r="F19" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="G19">
         <v>73.892082000000002</v>
@@ -7114,7 +7070,7 @@
     </row>
     <row r="20" spans="1:13">
       <c r="A20" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="B20">
         <v>58.139949999999999</v>
@@ -7128,7 +7084,7 @@
     </row>
     <row r="21" spans="1:13">
       <c r="A21" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="B21">
         <v>26.278300999999999</v>
@@ -7146,7 +7102,7 @@
     </row>
     <row r="22" spans="1:13">
       <c r="A22" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="B22">
         <v>71.448043999999996</v>
@@ -7158,7 +7114,7 @@
         <v>59.436680000000003</v>
       </c>
       <c r="F22" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="G22">
         <v>77.645645000000002</v>
@@ -7172,7 +7128,7 @@
     </row>
     <row r="23" spans="1:13">
       <c r="A23" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="B23">
         <v>29.088995000000001</v>
@@ -7184,7 +7140,7 @@
         <v>25.196235999999999</v>
       </c>
       <c r="F23" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="G23">
         <v>34.079875999999999</v>
@@ -7198,7 +7154,7 @@
     </row>
     <row r="24" spans="1:13">
       <c r="F24" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="G24">
         <v>88.461838</v>
@@ -7211,14 +7167,14 @@
       </c>
     </row>
     <row r="25" spans="1:13" s="4" customFormat="1">
-      <c r="A25" s="54" t="s">
+      <c r="A25" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="B25" s="54"/>
-      <c r="C25" s="54"/>
-      <c r="D25" s="54"/>
+      <c r="B25" s="48"/>
+      <c r="C25" s="48"/>
+      <c r="D25" s="48"/>
       <c r="F25" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="G25">
         <v>66.772942</v>
@@ -7232,7 +7188,7 @@
     </row>
     <row r="26" spans="1:13">
       <c r="A26" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="B26">
         <v>66.309807000000006</v>
@@ -7244,18 +7200,18 @@
         <v>53.479140999999998</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" spans="1:13">
       <c r="A27" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B27">
         <v>29.509063999999999</v>
@@ -7267,7 +7223,7 @@
         <v>23.816600999999999</v>
       </c>
       <c r="J27" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="K27">
         <f>B68-B64</f>
@@ -7284,7 +7240,7 @@
     </row>
     <row r="28" spans="1:13">
       <c r="A28" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B28">
         <v>50.308723000000001</v>
@@ -7296,7 +7252,7 @@
         <v>41.245510000000003</v>
       </c>
       <c r="J28" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="K28" t="e">
         <f>#REF!-#REF!</f>
@@ -7313,7 +7269,7 @@
     </row>
     <row r="29" spans="1:13">
       <c r="A29" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="B29">
         <v>34.161884000000001</v>
@@ -7325,49 +7281,49 @@
         <v>28.982102999999999</v>
       </c>
       <c r="J29" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="K29">
-        <f t="shared" ref="K29:M30" si="2">B69-B65</f>
+        <f>B69-B65</f>
         <v>2.2946550000000059</v>
       </c>
       <c r="L29">
-        <f t="shared" si="2"/>
+        <f>C69-C65</f>
         <v>-0.82664499999999919</v>
       </c>
       <c r="M29">
-        <f t="shared" si="2"/>
+        <f>D69-D65</f>
         <v>1.3992539999999991</v>
       </c>
     </row>
     <row r="30" spans="1:13">
       <c r="J30" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="K30">
-        <f t="shared" si="2"/>
+        <f>B70-B66</f>
         <v>-5.0113979999999998</v>
       </c>
       <c r="L30">
-        <f t="shared" si="2"/>
+        <f>C70-C66</f>
         <v>-9.018383</v>
       </c>
       <c r="M30">
-        <f t="shared" si="2"/>
+        <f>D70-D66</f>
         <v>-4.9346700000000041</v>
       </c>
     </row>
     <row r="31" spans="1:13" s="4" customFormat="1">
-      <c r="A31" s="54" t="s">
-        <v>13</v>
-      </c>
-      <c r="B31" s="54"/>
-      <c r="C31" s="54"/>
-      <c r="D31" s="54"/>
+      <c r="A31" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="B31" s="48"/>
+      <c r="C31" s="48"/>
+      <c r="D31" s="48"/>
     </row>
     <row r="32" spans="1:13">
       <c r="A32" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="B32">
         <v>58.860610999999999</v>
@@ -7381,7 +7337,7 @@
     </row>
     <row r="33" spans="1:19">
       <c r="A33" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B33">
         <v>26.436937</v>
@@ -7395,7 +7351,7 @@
     </row>
     <row r="34" spans="1:19">
       <c r="A34" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B34">
         <v>45.534058000000002</v>
@@ -7409,7 +7365,7 @@
     </row>
     <row r="35" spans="1:19">
       <c r="A35" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="B35">
         <v>27.838013</v>
@@ -7422,17 +7378,17 @@
       </c>
     </row>
     <row r="37" spans="1:19" s="4" customFormat="1">
-      <c r="A37" s="54" t="s">
-        <v>14</v>
-      </c>
-      <c r="B37" s="54"/>
-      <c r="C37" s="54"/>
-      <c r="D37" s="54"/>
+      <c r="A37" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="B37" s="48"/>
+      <c r="C37" s="48"/>
+      <c r="D37" s="48"/>
       <c r="F37"/>
     </row>
     <row r="38" spans="1:19">
       <c r="A38" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B38">
         <v>0.36363600000000001</v>
@@ -7446,7 +7402,7 @@
     </row>
     <row r="39" spans="1:19">
       <c r="A39" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B39">
         <v>0.14546500000000001</v>
@@ -7461,7 +7417,7 @@
     </row>
     <row r="40" spans="1:19">
       <c r="A40" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B40">
         <v>0.170068</v>
@@ -7475,7 +7431,7 @@
     </row>
     <row r="41" spans="1:19">
       <c r="A41" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B41">
         <v>6.5680000000000002E-2</v>
@@ -7488,16 +7444,16 @@
       </c>
     </row>
     <row r="43" spans="1:19">
-      <c r="A43" s="54" t="s">
-        <v>25</v>
-      </c>
-      <c r="B43" s="54"/>
-      <c r="C43" s="54"/>
-      <c r="D43" s="54"/>
+      <c r="A43" s="48" t="s">
+        <v>17</v>
+      </c>
+      <c r="B43" s="48"/>
+      <c r="C43" s="48"/>
+      <c r="D43" s="48"/>
     </row>
     <row r="44" spans="1:19">
       <c r="A44" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="B44">
         <v>66.286095000000003</v>
@@ -7511,7 +7467,7 @@
     </row>
     <row r="45" spans="1:19">
       <c r="A45" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="B45">
         <v>29.615461</v>
@@ -7525,7 +7481,7 @@
     </row>
     <row r="46" spans="1:19">
       <c r="A46" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="B46">
         <v>80.853729000000001</v>
@@ -7536,20 +7492,20 @@
       <c r="D46">
         <v>65.429282999999998</v>
       </c>
-      <c r="J46" s="54" t="s">
-        <v>36</v>
-      </c>
-      <c r="K46" s="54"/>
-      <c r="L46" s="54"/>
-      <c r="M46" s="54" t="s">
-        <v>30</v>
-      </c>
-      <c r="N46" s="54"/>
-      <c r="O46" s="54"/>
+      <c r="J46" s="48" t="s">
+        <v>28</v>
+      </c>
+      <c r="K46" s="48"/>
+      <c r="L46" s="48"/>
+      <c r="M46" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="N46" s="48"/>
+      <c r="O46" s="48"/>
     </row>
     <row r="47" spans="1:19">
       <c r="A47" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="B47">
         <v>40.968905999999997</v>
@@ -7561,27 +7517,27 @@
         <v>32.869728000000002</v>
       </c>
       <c r="J47" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="K47" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="L47" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="M47" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="N47" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="O47" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="48" spans="1:19" ht="17">
       <c r="I48" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="J48" s="6">
         <v>0.112495</v>
@@ -7638,21 +7594,21 @@
         <v>1.8624000000000002E-2</v>
       </c>
       <c r="R49">
-        <f t="shared" ref="R49:R57" si="3">K49-N49</f>
+        <f t="shared" ref="R49:R57" si="2">K49-N49</f>
         <v>-9.1137000000000246E-2</v>
       </c>
       <c r="S49">
-        <f t="shared" ref="S49:S57" si="4">L49-O49</f>
+        <f t="shared" ref="S49:S57" si="3">L49-O49</f>
         <v>1.535099999999999E-2</v>
       </c>
     </row>
     <row r="50" spans="1:24" ht="17">
-      <c r="A50" s="54" t="s">
-        <v>34</v>
-      </c>
-      <c r="B50" s="54"/>
-      <c r="C50" s="54"/>
-      <c r="D50" s="54"/>
+      <c r="A50" s="48" t="s">
+        <v>26</v>
+      </c>
+      <c r="B50" s="48"/>
+      <c r="C50" s="48"/>
+      <c r="D50" s="48"/>
       <c r="J50" s="6">
         <v>0.112652</v>
       </c>
@@ -7676,30 +7632,30 @@
         <v>1.8341999999999997E-2</v>
       </c>
       <c r="R50">
+        <f t="shared" si="2"/>
+        <v>2.510243</v>
+      </c>
+      <c r="S50">
         <f t="shared" si="3"/>
-        <v>2.510243</v>
-      </c>
-      <c r="S50">
-        <f t="shared" si="4"/>
         <v>1.8943999999999989E-2</v>
       </c>
     </row>
     <row r="51" spans="1:24">
       <c r="F51" s="1" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="J51">
         <f>AVERAGE(J48:J50)</f>
         <v>0.11263699999999999</v>
       </c>
       <c r="K51">
-        <f t="shared" ref="K51:O51" si="5">AVERAGE(K48:K50)</f>
+        <f t="shared" ref="K51:O51" si="4">AVERAGE(K48:K50)</f>
         <v>3.8125603333333338</v>
       </c>
       <c r="L51">
@@ -7707,15 +7663,15 @@
         <v>0.12936300000000001</v>
       </c>
       <c r="M51">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>9.4689999999999996E-2</v>
       </c>
       <c r="N51">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>2.45675</v>
       </c>
       <c r="O51">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0.11198666666666668</v>
       </c>
       <c r="Q51">
@@ -7723,17 +7679,17 @@
         <v>1.7946999999999991E-2</v>
       </c>
       <c r="R51">
+        <f t="shared" si="2"/>
+        <v>1.3558103333333338</v>
+      </c>
+      <c r="S51">
         <f t="shared" si="3"/>
-        <v>1.3558103333333338</v>
-      </c>
-      <c r="S51">
-        <f t="shared" si="4"/>
         <v>1.7376333333333327E-2</v>
       </c>
     </row>
     <row r="52" spans="1:24">
       <c r="A52" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="B52">
         <v>86.987999000000002</v>
@@ -7745,7 +7701,7 @@
         <v>68.012459000000007</v>
       </c>
       <c r="E52" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="F52">
         <f>B58-B52</f>
@@ -7762,7 +7718,7 @@
     </row>
     <row r="53" spans="1:24">
       <c r="A53" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="B53">
         <v>86.00412</v>
@@ -7774,10 +7730,10 @@
         <v>65.62397</v>
       </c>
       <c r="E53" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="F53">
-        <f t="shared" ref="F53:F54" si="6">B59-B53</f>
+        <f>B59-B53</f>
         <v>1.1086200000000019</v>
       </c>
       <c r="G53">
@@ -7791,7 +7747,7 @@
     </row>
     <row r="54" spans="1:24" ht="17">
       <c r="A54" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="B54">
         <v>75.447768999999994</v>
@@ -7803,10 +7759,10 @@
         <v>54.334251000000002</v>
       </c>
       <c r="E54" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="F54">
-        <f t="shared" si="6"/>
+        <f>B60-B54</f>
         <v>-1.7112999999994827E-2</v>
       </c>
       <c r="G54">
@@ -7818,7 +7774,7 @@
         <v>8.568050999999997</v>
       </c>
       <c r="I54" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="J54" s="6">
         <v>0.113817</v>
@@ -7843,11 +7799,11 @@
         <v>1.4166999999999999E-2</v>
       </c>
       <c r="R54">
+        <f t="shared" si="2"/>
+        <v>-0.10750499999999974</v>
+      </c>
+      <c r="S54">
         <f t="shared" si="3"/>
-        <v>-0.10750499999999974</v>
-      </c>
-      <c r="S54">
-        <f t="shared" si="4"/>
         <v>1.6319E-2</v>
       </c>
     </row>
@@ -7875,11 +7831,11 @@
         <v>1.7624000000000001E-2</v>
       </c>
       <c r="R55">
+        <f t="shared" si="2"/>
+        <v>-0.21777900000000017</v>
+      </c>
+      <c r="S55">
         <f t="shared" si="3"/>
-        <v>-0.21777900000000017</v>
-      </c>
-      <c r="S55">
-        <f t="shared" si="4"/>
         <v>1.3164999999999996E-2</v>
       </c>
     </row>
@@ -7907,43 +7863,43 @@
         <v>1.8345E-2</v>
       </c>
       <c r="R56">
+        <f t="shared" si="2"/>
+        <v>-0.51988699999999977</v>
+      </c>
+      <c r="S56">
         <f t="shared" si="3"/>
-        <v>-0.51988699999999977</v>
-      </c>
-      <c r="S56">
-        <f t="shared" si="4"/>
         <v>1.4544999999999988E-2</v>
       </c>
     </row>
     <row r="57" spans="1:24">
-      <c r="A57" s="54" t="s">
-        <v>35</v>
-      </c>
-      <c r="B57" s="54"/>
-      <c r="C57" s="54"/>
-      <c r="D57" s="54"/>
+      <c r="A57" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="B57" s="48"/>
+      <c r="C57" s="48"/>
+      <c r="D57" s="48"/>
       <c r="J57">
         <f>AVERAGE(J54:J56)</f>
         <v>0.11308533333333333</v>
       </c>
       <c r="K57">
-        <f t="shared" ref="K57:O57" si="7">AVERAGE(K54:K56)</f>
+        <f t="shared" ref="K57:O57" si="5">AVERAGE(K54:K56)</f>
         <v>2.2242763333333335</v>
       </c>
       <c r="L57">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0.12726966666666664</v>
       </c>
       <c r="M57">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>9.6373333333333325E-2</v>
       </c>
       <c r="N57">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>2.5059999999999998</v>
       </c>
       <c r="O57">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0.11259333333333334</v>
       </c>
       <c r="Q57">
@@ -7951,17 +7907,17 @@
         <v>1.6712000000000005E-2</v>
       </c>
       <c r="R57">
+        <f t="shared" si="2"/>
+        <v>-0.28172366666666626</v>
+      </c>
+      <c r="S57">
         <f t="shared" si="3"/>
-        <v>-0.28172366666666626</v>
-      </c>
-      <c r="S57">
-        <f t="shared" si="4"/>
         <v>1.4676333333333305E-2</v>
       </c>
     </row>
     <row r="58" spans="1:24">
       <c r="A58" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="B58">
         <v>89.186171999999999</v>
@@ -7975,7 +7931,7 @@
     </row>
     <row r="59" spans="1:24">
       <c r="A59" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="B59">
         <v>87.112740000000002</v>
@@ -7986,15 +7942,15 @@
       <c r="D59">
         <v>75.720955000000004</v>
       </c>
-      <c r="I59" s="54" t="s">
-        <v>44</v>
-      </c>
-      <c r="J59" s="54"/>
-      <c r="K59" s="54"/>
+      <c r="I59" s="48" t="s">
+        <v>36</v>
+      </c>
+      <c r="J59" s="48"/>
+      <c r="K59" s="48"/>
     </row>
     <row r="60" spans="1:24">
       <c r="A60" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="B60">
         <v>75.430655999999999</v>
@@ -8006,15 +7962,15 @@
         <v>62.902301999999999</v>
       </c>
       <c r="J60" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="K60" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="61" spans="1:24">
       <c r="I61" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="J61">
         <f>L51</f>
@@ -8027,7 +7983,7 @@
     </row>
     <row r="62" spans="1:24">
       <c r="I62" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="J62">
         <f>L57</f>
@@ -8039,30 +7995,30 @@
       </c>
     </row>
     <row r="63" spans="1:24">
-      <c r="A63" s="54" t="s">
-        <v>45</v>
-      </c>
-      <c r="B63" s="54"/>
-      <c r="C63" s="54"/>
-      <c r="D63" s="54"/>
-      <c r="O63" s="54" t="s">
-        <v>66</v>
-      </c>
-      <c r="P63" s="54"/>
-      <c r="Q63" s="54"/>
-      <c r="R63" s="54"/>
-      <c r="S63" s="54"/>
-      <c r="T63" s="54" t="s">
-        <v>65</v>
-      </c>
-      <c r="U63" s="54"/>
-      <c r="V63" s="54"/>
-      <c r="W63" s="54"/>
+      <c r="A63" s="48" t="s">
+        <v>37</v>
+      </c>
+      <c r="B63" s="48"/>
+      <c r="C63" s="48"/>
+      <c r="D63" s="48"/>
+      <c r="O63" s="48" t="s">
+        <v>58</v>
+      </c>
+      <c r="P63" s="48"/>
+      <c r="Q63" s="48"/>
+      <c r="R63" s="48"/>
+      <c r="S63" s="48"/>
+      <c r="T63" s="48" t="s">
+        <v>57</v>
+      </c>
+      <c r="U63" s="48"/>
+      <c r="V63" s="48"/>
+      <c r="W63" s="48"/>
       <c r="X63" s="4"/>
     </row>
     <row r="64" spans="1:24" ht="17">
       <c r="A64" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="B64" s="4">
         <v>69.597938999999997</v>
@@ -8074,36 +8030,36 @@
         <v>59.284453999999997</v>
       </c>
       <c r="I64" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="P64" s="6" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="Q64" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="R64" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="S64" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="T64" s="6" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="U64" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="V64" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="W64" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="65" spans="1:23" ht="17">
       <c r="A65" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="B65">
         <v>86.340369999999993</v>
@@ -8115,10 +8071,10 @@
         <v>68.103294000000005</v>
       </c>
       <c r="I65" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="O65" s="6" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="P65">
         <v>0.52</v>
@@ -8147,7 +8103,7 @@
     </row>
     <row r="66" spans="1:23" ht="17">
       <c r="A66" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="B66">
         <v>73.632262999999995</v>
@@ -8159,7 +8115,7 @@
         <v>50.744587000000003</v>
       </c>
       <c r="O66" s="6" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="P66">
         <v>0.46</v>
@@ -8187,14 +8143,14 @@
       </c>
     </row>
     <row r="67" spans="1:23" ht="17">
-      <c r="A67" s="54" t="s">
-        <v>46</v>
-      </c>
-      <c r="B67" s="54"/>
-      <c r="C67" s="54"/>
-      <c r="D67" s="54"/>
+      <c r="A67" s="48" t="s">
+        <v>38</v>
+      </c>
+      <c r="B67" s="48"/>
+      <c r="C67" s="48"/>
+      <c r="D67" s="48"/>
       <c r="O67" s="6" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="P67">
         <v>0.47</v>
@@ -8223,7 +8179,7 @@
     </row>
     <row r="68" spans="1:23">
       <c r="A68" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="B68">
         <v>77.520409000000001</v>
@@ -8234,17 +8190,17 @@
       <c r="D68">
         <v>62.281650999999997</v>
       </c>
-      <c r="O68" s="54" t="s">
-        <v>65</v>
-      </c>
-      <c r="P68" s="54"/>
-      <c r="Q68" s="54"/>
-      <c r="R68" s="54"/>
-      <c r="S68" s="54"/>
+      <c r="O68" s="48" t="s">
+        <v>57</v>
+      </c>
+      <c r="P68" s="48"/>
+      <c r="Q68" s="48"/>
+      <c r="R68" s="48"/>
+      <c r="S68" s="48"/>
     </row>
     <row r="69" spans="1:23" ht="17">
       <c r="A69" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="B69">
         <v>88.635024999999999</v>
@@ -8256,21 +8212,21 @@
         <v>69.502548000000004</v>
       </c>
       <c r="P69" s="6" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="Q69" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="R69" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="S69" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="70" spans="1:23" ht="17">
       <c r="A70" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="B70">
         <v>68.620864999999995</v>
@@ -8282,7 +8238,7 @@
         <v>45.809916999999999</v>
       </c>
       <c r="O70" s="6" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="P70" s="6">
         <v>0.81</v>
@@ -8307,7 +8263,7 @@
       <c r="G71" s="20"/>
       <c r="H71" s="20"/>
       <c r="O71" s="6" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="P71" s="6">
         <v>0.9</v>
@@ -8325,21 +8281,21 @@
     </row>
     <row r="72" spans="1:23" ht="19" thickTop="1" thickBot="1">
       <c r="A72" s="40" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="B72" s="31"/>
-      <c r="C72" s="56" t="s">
-        <v>37</v>
-      </c>
-      <c r="D72" s="56"/>
-      <c r="E72" s="57"/>
-      <c r="F72" s="51" t="s">
-        <v>38</v>
-      </c>
-      <c r="G72" s="52"/>
-      <c r="H72" s="53"/>
+      <c r="C72" s="59" t="s">
+        <v>29</v>
+      </c>
+      <c r="D72" s="50"/>
+      <c r="E72" s="51"/>
+      <c r="F72" s="49" t="s">
+        <v>30</v>
+      </c>
+      <c r="G72" s="50"/>
+      <c r="H72" s="51"/>
       <c r="O72" s="6" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="P72" s="6">
         <v>0.86</v>
@@ -8356,37 +8312,37 @@
     </row>
     <row r="73" spans="1:23" ht="19" thickTop="1" thickBot="1">
       <c r="A73" s="39" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="B73" s="28"/>
       <c r="C73" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="D73" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="E73" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="F73" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="G73" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="H73" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="J73" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="74" spans="1:23" ht="17" thickTop="1">
+      <c r="A74" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="D73" s="29" t="s">
-        <v>47</v>
-      </c>
-      <c r="E73" s="30" t="s">
-        <v>24</v>
-      </c>
-      <c r="F73" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="G73" s="29" t="s">
-        <v>47</v>
-      </c>
-      <c r="H73" s="30" t="s">
-        <v>24</v>
-      </c>
-      <c r="J73" s="6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="74" spans="1:23" ht="17" thickTop="1">
-      <c r="A74" s="42" t="s">
-        <v>30</v>
-      </c>
       <c r="B74" s="23" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="C74" s="12">
         <v>86.987999000000002</v>
@@ -8408,9 +8364,9 @@
       </c>
     </row>
     <row r="75" spans="1:23" ht="17">
-      <c r="A75" s="43"/>
+      <c r="A75" s="56"/>
       <c r="B75" s="24" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C75" s="7">
         <v>86.00412</v>
@@ -8431,13 +8387,13 @@
         <v>75.720955000000004</v>
       </c>
       <c r="J75" s="6" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
     </row>
     <row r="76" spans="1:23" ht="18" thickBot="1">
-      <c r="A76" s="44"/>
+      <c r="A76" s="57"/>
       <c r="B76" s="25" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C76" s="10">
         <v>75.447768999999994</v>
@@ -8458,15 +8414,15 @@
         <v>62.902301999999999</v>
       </c>
       <c r="J76" s="6" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
     </row>
     <row r="77" spans="1:23">
-      <c r="A77" s="45" t="s">
-        <v>36</v>
+      <c r="A77" s="44" t="s">
+        <v>28</v>
       </c>
       <c r="B77" s="26" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="C77" s="14">
         <v>69.597938999999997</v>
@@ -8486,21 +8442,21 @@
       <c r="H77" s="18">
         <v>62.281650999999997</v>
       </c>
-      <c r="N77" s="54" t="s">
-        <v>36</v>
-      </c>
-      <c r="O77" s="54"/>
-      <c r="P77" s="54"/>
-      <c r="Q77" s="54" t="s">
-        <v>30</v>
-      </c>
-      <c r="R77" s="54"/>
-      <c r="S77" s="54"/>
+      <c r="N77" s="48" t="s">
+        <v>28</v>
+      </c>
+      <c r="O77" s="48"/>
+      <c r="P77" s="48"/>
+      <c r="Q77" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="R77" s="48"/>
+      <c r="S77" s="48"/>
     </row>
     <row r="78" spans="1:23" ht="17">
-      <c r="A78" s="46"/>
+      <c r="A78" s="45"/>
       <c r="B78" s="24" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C78" s="11">
         <v>86.340369999999993</v>
@@ -8521,31 +8477,31 @@
         <v>69.502548000000004</v>
       </c>
       <c r="J78" s="6" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="N78" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="O78" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="P78" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="Q78" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="R78" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="S78" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="79" spans="1:23" ht="17" thickBot="1">
-      <c r="A79" s="47"/>
+      <c r="A79" s="46"/>
       <c r="B79" s="27" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C79" s="21">
         <v>73.632262999999995</v>
@@ -8566,7 +8522,7 @@
         <v>45.809916999999999</v>
       </c>
       <c r="M79" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="N79" s="41">
         <v>0.11263699999999999</v>
@@ -8589,10 +8545,10 @@
     </row>
     <row r="80" spans="1:23" ht="18" thickTop="1">
       <c r="J80" s="6" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="M80" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="N80" s="41">
         <v>0.11308533333333333</v>
@@ -8615,30 +8571,30 @@
     </row>
     <row r="82" spans="1:17" ht="17">
       <c r="J82" s="6" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
     </row>
     <row r="83" spans="1:17" ht="17">
       <c r="J83" s="6" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
     </row>
     <row r="85" spans="1:17" ht="17">
       <c r="J85" s="6" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
     </row>
     <row r="86" spans="1:17">
-      <c r="A86" s="54" t="s">
+      <c r="A86" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="B86" s="54"/>
-      <c r="C86" s="54"/>
-      <c r="D86" s="54"/>
+      <c r="B86" s="48"/>
+      <c r="C86" s="48"/>
+      <c r="D86" s="48"/>
     </row>
     <row r="87" spans="1:17">
       <c r="A87" s="23" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="B87">
         <v>66.309807000000006</v>
@@ -8649,16 +8605,16 @@
       <c r="D87">
         <v>53.479140999999998</v>
       </c>
-      <c r="N87" s="54" t="s">
-        <v>70</v>
-      </c>
-      <c r="O87" s="54"/>
-      <c r="P87" s="54"/>
-      <c r="Q87" s="54"/>
+      <c r="N87" s="48" t="s">
+        <v>62</v>
+      </c>
+      <c r="O87" s="48"/>
+      <c r="P87" s="48"/>
+      <c r="Q87" s="48"/>
     </row>
     <row r="88" spans="1:17" ht="17">
       <c r="A88" s="24" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="B88">
         <v>50.308723000000001</v>
@@ -8670,24 +8626,24 @@
         <v>41.245510000000003</v>
       </c>
       <c r="J88" s="6" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="N88" s="6" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="O88" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="P88" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="Q88" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="89" spans="1:17" ht="18" thickBot="1">
       <c r="A89" s="25" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="B89">
         <v>34.161884000000001</v>
@@ -8699,7 +8655,7 @@
         <v>28.982102999999999</v>
       </c>
       <c r="M89" s="6" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="N89">
         <v>0.52</v>
@@ -8716,10 +8672,10 @@
     </row>
     <row r="90" spans="1:17" ht="17">
       <c r="J90" s="6" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="M90" s="6" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="N90">
         <v>0.51</v>
@@ -8736,10 +8692,10 @@
     </row>
     <row r="91" spans="1:17" ht="17">
       <c r="J91" s="6" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="M91" s="6" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="N91">
         <v>0.51</v>
@@ -8755,37 +8711,37 @@
       </c>
     </row>
     <row r="92" spans="1:17">
-      <c r="B92" s="54" t="s">
+      <c r="B92" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="C92" s="54"/>
-      <c r="D92" s="54"/>
-      <c r="E92" s="54"/>
+      <c r="C92" s="48"/>
+      <c r="D92" s="48"/>
+      <c r="E92" s="48"/>
     </row>
     <row r="93" spans="1:17" ht="18" thickBot="1">
       <c r="A93" s="39" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="B93" s="28"/>
       <c r="C93" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="D93" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="E93" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="J93" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="94" spans="1:17" ht="17" thickTop="1">
+      <c r="A94" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="D93" s="29" t="s">
-        <v>47</v>
-      </c>
-      <c r="E93" s="30" t="s">
-        <v>24</v>
-      </c>
-      <c r="J93" s="6" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="94" spans="1:17" ht="17" thickTop="1">
-      <c r="A94" s="42" t="s">
-        <v>30</v>
-      </c>
       <c r="B94" s="23" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="C94">
         <v>66.309807000000006</v>
@@ -8798,9 +8754,9 @@
       </c>
     </row>
     <row r="95" spans="1:17">
-      <c r="A95" s="43"/>
+      <c r="A95" s="56"/>
       <c r="B95" s="24" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C95">
         <v>50.308723000000001</v>
@@ -8813,9 +8769,9 @@
       </c>
     </row>
     <row r="96" spans="1:17" ht="17" thickBot="1">
-      <c r="A96" s="44"/>
+      <c r="A96" s="57"/>
       <c r="B96" s="25" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C96">
         <v>34.161884000000001</v>
@@ -8828,11 +8784,11 @@
       </c>
     </row>
     <row r="97" spans="1:19" ht="17">
-      <c r="A97" s="45" t="s">
-        <v>36</v>
+      <c r="A97" s="44" t="s">
+        <v>28</v>
       </c>
       <c r="B97" s="26" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="C97" s="14">
         <v>69.597938999999997</v>
@@ -8848,9 +8804,9 @@
       </c>
     </row>
     <row r="98" spans="1:19" ht="17">
-      <c r="A98" s="46"/>
+      <c r="A98" s="45"/>
       <c r="B98" s="24" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C98" s="11">
         <v>86.340369999999993</v>
@@ -8873,18 +8829,18 @@
       <c r="M98">
         <v>2055</v>
       </c>
-      <c r="O98" s="54" t="s">
-        <v>65</v>
-      </c>
-      <c r="P98" s="54"/>
-      <c r="Q98" s="54"/>
-      <c r="R98" s="54"/>
-      <c r="S98" s="54"/>
+      <c r="O98" s="48" t="s">
+        <v>57</v>
+      </c>
+      <c r="P98" s="48"/>
+      <c r="Q98" s="48"/>
+      <c r="R98" s="48"/>
+      <c r="S98" s="48"/>
     </row>
     <row r="99" spans="1:19" ht="18" thickBot="1">
-      <c r="A99" s="47"/>
+      <c r="A99" s="46"/>
       <c r="B99" s="27" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C99" s="21">
         <v>73.632262999999995</v>
@@ -8896,21 +8852,21 @@
         <v>50.744587000000003</v>
       </c>
       <c r="P99" s="6" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="Q99" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="R99" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="S99" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="100" spans="1:19" ht="18" thickTop="1">
       <c r="O100" s="6" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="P100">
         <v>0.83</v>
@@ -8927,7 +8883,7 @@
     </row>
     <row r="101" spans="1:19" ht="17">
       <c r="O101" s="6" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="P101">
         <v>0.85</v>
@@ -8944,7 +8900,7 @@
     </row>
     <row r="102" spans="1:19" ht="18" thickBot="1">
       <c r="O102" s="6" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="P102" s="6">
         <v>0.84</v>
@@ -8961,50 +8917,50 @@
     </row>
     <row r="103" spans="1:19" ht="18" thickTop="1" thickBot="1">
       <c r="A103" s="40" t="s">
-        <v>48</v>
-      </c>
-      <c r="B103" s="48" t="s">
-        <v>71</v>
-      </c>
-      <c r="C103" s="49"/>
-      <c r="D103" s="49"/>
-      <c r="E103" s="50"/>
-      <c r="F103" s="51" t="s">
-        <v>72</v>
-      </c>
-      <c r="G103" s="52"/>
-      <c r="H103" s="53"/>
+        <v>40</v>
+      </c>
+      <c r="B103" s="52" t="s">
+        <v>63</v>
+      </c>
+      <c r="C103" s="53"/>
+      <c r="D103" s="53"/>
+      <c r="E103" s="54"/>
+      <c r="F103" s="49" t="s">
+        <v>64</v>
+      </c>
+      <c r="G103" s="50"/>
+      <c r="H103" s="51"/>
     </row>
     <row r="104" spans="1:19" ht="18" thickTop="1" thickBot="1">
       <c r="A104" s="39" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="B104" s="28"/>
       <c r="C104" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="D104" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="E104" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="F104" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="G104" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="H104" s="30" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="105" spans="1:19" ht="17" thickTop="1">
+      <c r="A105" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="D104" s="29" t="s">
-        <v>47</v>
-      </c>
-      <c r="E104" s="30" t="s">
-        <v>24</v>
-      </c>
-      <c r="F104" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="G104" s="29" t="s">
-        <v>47</v>
-      </c>
-      <c r="H104" s="30" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="105" spans="1:19" ht="17" thickTop="1">
-      <c r="A105" s="42" t="s">
-        <v>30</v>
-      </c>
       <c r="B105" s="23" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="C105" s="12">
         <v>86.987999000000002</v>
@@ -9026,9 +8982,9 @@
       </c>
     </row>
     <row r="106" spans="1:19">
-      <c r="A106" s="43"/>
+      <c r="A106" s="56"/>
       <c r="B106" s="24" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C106" s="7">
         <v>86.00412</v>
@@ -9050,9 +9006,9 @@
       </c>
     </row>
     <row r="107" spans="1:19" ht="17" thickBot="1">
-      <c r="A107" s="44"/>
+      <c r="A107" s="57"/>
       <c r="B107" s="25" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C107" s="10">
         <v>75.447768999999994</v>
@@ -9074,11 +9030,11 @@
       </c>
     </row>
     <row r="108" spans="1:19">
-      <c r="A108" s="45" t="s">
-        <v>36</v>
+      <c r="A108" s="44" t="s">
+        <v>28</v>
       </c>
       <c r="B108" s="26" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="C108">
         <v>65.951279</v>
@@ -9100,9 +9056,9 @@
       </c>
     </row>
     <row r="109" spans="1:19">
-      <c r="A109" s="46"/>
+      <c r="A109" s="45"/>
       <c r="B109" s="24" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C109">
         <v>81.242408999999995</v>
@@ -9124,9 +9080,9 @@
       </c>
     </row>
     <row r="110" spans="1:19" ht="17" thickBot="1">
-      <c r="A110" s="47"/>
+      <c r="A110" s="46"/>
       <c r="B110" s="27" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C110">
         <v>40.000149</v>
@@ -9150,7 +9106,7 @@
     <row r="111" spans="1:19" ht="17" thickTop="1"/>
     <row r="118" spans="1:10">
       <c r="F118" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="G118">
         <v>56.683436999999998</v>
@@ -9159,15 +9115,15 @@
         <v>55.972510999999997</v>
       </c>
       <c r="J118" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
     </row>
     <row r="119" spans="1:10">
       <c r="A119" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="F119" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="G119">
         <v>70.672707000000003</v>
@@ -9176,12 +9132,12 @@
         <v>65.347594999999998</v>
       </c>
       <c r="J119" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
     </row>
     <row r="120" spans="1:10">
       <c r="F120" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="G120">
         <v>34.892158999999999</v>
@@ -9190,215 +9146,215 @@
         <v>31.376111999999999</v>
       </c>
       <c r="J120" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
     </row>
     <row r="121" spans="1:10">
       <c r="F121" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="J121" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
     </row>
     <row r="122" spans="1:10">
       <c r="A122" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B122" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="C122" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="D122" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="F122" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="J122" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
     </row>
     <row r="123" spans="1:10">
       <c r="A123" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="B123" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="C123" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="D123" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
     </row>
     <row r="124" spans="1:10">
       <c r="A124" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="B124" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="C124" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="D124" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
     </row>
     <row r="125" spans="1:10">
       <c r="A125" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="B125" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="C125" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="D125" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
     </row>
     <row r="126" spans="1:10">
       <c r="A126" t="s">
+        <v>74</v>
+      </c>
+      <c r="B126" t="s">
+        <v>78</v>
+      </c>
+      <c r="C126" t="s">
         <v>82</v>
       </c>
-      <c r="B126" t="s">
-        <v>86</v>
-      </c>
-      <c r="C126" t="s">
-        <v>90</v>
-      </c>
       <c r="D126" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
     </row>
     <row r="127" spans="1:10">
       <c r="A127" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="B127" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="C127" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="D127" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
     </row>
     <row r="128" spans="1:10">
       <c r="G128" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
     </row>
     <row r="129" spans="1:8">
       <c r="G129" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
     </row>
     <row r="130" spans="1:8">
       <c r="G130" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
     </row>
     <row r="131" spans="1:8">
       <c r="G131" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
     </row>
     <row r="132" spans="1:8">
       <c r="G132" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
     </row>
     <row r="133" spans="1:8">
       <c r="G133" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
     </row>
     <row r="134" spans="1:8">
       <c r="G134" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
     </row>
     <row r="135" spans="1:8">
       <c r="G135" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
     </row>
     <row r="136" spans="1:8">
       <c r="G136" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
     </row>
     <row r="137" spans="1:8">
       <c r="G137" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
     </row>
     <row r="144" spans="1:8" ht="17" thickBot="1">
-      <c r="A144" s="58" t="s">
-        <v>72</v>
-      </c>
-      <c r="B144" s="58"/>
-      <c r="C144" s="58"/>
-      <c r="D144" s="58"/>
-      <c r="E144" s="58"/>
-      <c r="F144" s="58"/>
-      <c r="G144" s="58"/>
-      <c r="H144" s="58"/>
+      <c r="A144" s="47" t="s">
+        <v>64</v>
+      </c>
+      <c r="B144" s="47"/>
+      <c r="C144" s="47"/>
+      <c r="D144" s="47"/>
+      <c r="E144" s="47"/>
+      <c r="F144" s="47"/>
+      <c r="G144" s="47"/>
+      <c r="H144" s="47"/>
     </row>
     <row r="145" spans="1:8" ht="18" thickTop="1" thickBot="1">
       <c r="A145" s="40" t="s">
-        <v>48</v>
-      </c>
-      <c r="B145" s="48" t="s">
-        <v>37</v>
-      </c>
-      <c r="C145" s="49"/>
-      <c r="D145" s="49"/>
-      <c r="E145" s="50"/>
-      <c r="F145" s="51" t="s">
-        <v>105</v>
-      </c>
-      <c r="G145" s="52"/>
-      <c r="H145" s="53"/>
+        <v>40</v>
+      </c>
+      <c r="B145" s="52" t="s">
+        <v>29</v>
+      </c>
+      <c r="C145" s="53"/>
+      <c r="D145" s="53"/>
+      <c r="E145" s="54"/>
+      <c r="F145" s="49" t="s">
+        <v>97</v>
+      </c>
+      <c r="G145" s="50"/>
+      <c r="H145" s="51"/>
     </row>
     <row r="146" spans="1:8" ht="18" thickTop="1" thickBot="1">
       <c r="A146" s="39" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="B146" s="28"/>
       <c r="C146" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="D146" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="E146" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="F146" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="G146" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="H146" s="30" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" ht="18" thickTop="1">
+      <c r="A147" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="D146" s="29" t="s">
-        <v>47</v>
-      </c>
-      <c r="E146" s="30" t="s">
-        <v>24</v>
-      </c>
-      <c r="F146" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="G146" s="29" t="s">
-        <v>47</v>
-      </c>
-      <c r="H146" s="30" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8" ht="18" thickTop="1">
-      <c r="A147" s="42" t="s">
-        <v>30</v>
-      </c>
       <c r="B147" s="23" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="C147" s="12">
         <v>78.626632999999998</v>
@@ -9420,9 +9376,9 @@
       </c>
     </row>
     <row r="148" spans="1:8" ht="17">
-      <c r="A148" s="43"/>
+      <c r="A148" s="56"/>
       <c r="B148" s="24" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C148" s="6">
         <v>80.880447000000004</v>
@@ -9444,9 +9400,9 @@
       </c>
     </row>
     <row r="149" spans="1:8" ht="18" thickBot="1">
-      <c r="A149" s="44"/>
+      <c r="A149" s="57"/>
       <c r="B149" s="25" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C149" s="6">
         <v>80.649719000000005</v>
@@ -9468,11 +9424,11 @@
       </c>
     </row>
     <row r="150" spans="1:8" ht="17">
-      <c r="A150" s="45" t="s">
-        <v>36</v>
+      <c r="A150" s="44" t="s">
+        <v>28</v>
       </c>
       <c r="B150" s="26" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="C150" s="6">
         <v>72.129386999999994</v>
@@ -9494,9 +9450,9 @@
       </c>
     </row>
     <row r="151" spans="1:8" ht="17">
-      <c r="A151" s="46"/>
+      <c r="A151" s="45"/>
       <c r="B151" s="24" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C151" s="6">
         <v>74.766677999999999</v>
@@ -9518,9 +9474,9 @@
       </c>
     </row>
     <row r="152" spans="1:8" ht="18" thickBot="1">
-      <c r="A152" s="47"/>
+      <c r="A152" s="46"/>
       <c r="B152" s="27" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C152" s="6">
         <v>71.177627999999999</v>
@@ -9544,18 +9500,18 @@
     <row r="153" spans="1:8" ht="17" thickTop="1"/>
     <row r="157" spans="1:8">
       <c r="B157" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="C157" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="D157" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
     </row>
     <row r="158" spans="1:8" ht="17">
       <c r="A158" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="B158" s="6">
         <v>4612.5</v>
@@ -9569,7 +9525,7 @@
     </row>
     <row r="159" spans="1:8" ht="17">
       <c r="A159" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="B159" s="6">
         <v>4608.5</v>
@@ -9582,88 +9538,68 @@
       </c>
     </row>
     <row r="163" spans="1:5">
-      <c r="B163" s="54" t="s">
-        <v>37</v>
-      </c>
-      <c r="C163" s="54"/>
-      <c r="D163" s="54" t="s">
-        <v>38</v>
-      </c>
-      <c r="E163" s="54"/>
+      <c r="B163" s="48" t="s">
+        <v>29</v>
+      </c>
+      <c r="C163" s="48"/>
+      <c r="D163" s="48" t="s">
+        <v>30</v>
+      </c>
+      <c r="E163" s="48"/>
     </row>
     <row r="164" spans="1:5">
       <c r="A164" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="B164" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="C164" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="D164" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="E164" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
     </row>
     <row r="165" spans="1:5">
       <c r="A165" t="s">
-        <v>30</v>
-      </c>
-      <c r="B165" s="59">
+        <v>22</v>
+      </c>
+      <c r="B165" s="42">
         <v>14832</v>
       </c>
-      <c r="C165" s="59">
+      <c r="C165" s="42">
         <v>14762.815634000001</v>
       </c>
-      <c r="D165" s="60">
+      <c r="D165" s="43">
         <v>14320</v>
       </c>
-      <c r="E165" s="59">
+      <c r="E165" s="42">
         <v>14241.497496</v>
       </c>
     </row>
     <row r="166" spans="1:5">
       <c r="A166" t="s">
-        <v>36</v>
-      </c>
-      <c r="B166" s="59">
+        <v>28</v>
+      </c>
+      <c r="B166" s="42">
         <v>14832</v>
       </c>
-      <c r="C166" s="59">
+      <c r="C166" s="42">
         <v>14031.075091999999</v>
       </c>
-      <c r="D166" s="59">
+      <c r="D166" s="42">
         <v>14832</v>
       </c>
-      <c r="E166" s="59">
+      <c r="E166" s="42">
         <v>13808.981053</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="A150:A152"/>
-    <mergeCell ref="A144:H144"/>
-    <mergeCell ref="B163:C163"/>
-    <mergeCell ref="D163:E163"/>
-    <mergeCell ref="O98:S98"/>
-    <mergeCell ref="C72:E72"/>
-    <mergeCell ref="F72:H72"/>
-    <mergeCell ref="B145:E145"/>
-    <mergeCell ref="F145:H145"/>
-    <mergeCell ref="A147:A149"/>
-    <mergeCell ref="A31:D31"/>
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="F8:I8"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="A43:D43"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="A13:D13"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="A25:D25"/>
     <mergeCell ref="N87:Q87"/>
     <mergeCell ref="T63:W63"/>
     <mergeCell ref="A86:D86"/>
@@ -9680,6 +9616,21 @@
     <mergeCell ref="O68:S68"/>
     <mergeCell ref="N77:P77"/>
     <mergeCell ref="Q77:S77"/>
+    <mergeCell ref="A31:D31"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="F8:I8"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="A43:D43"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="C72:E72"/>
+    <mergeCell ref="F72:H72"/>
+    <mergeCell ref="B145:E145"/>
+    <mergeCell ref="F145:H145"/>
+    <mergeCell ref="A147:A149"/>
     <mergeCell ref="A105:A107"/>
     <mergeCell ref="A108:A110"/>
     <mergeCell ref="B103:E103"/>
@@ -9687,6 +9638,11 @@
     <mergeCell ref="B92:E92"/>
     <mergeCell ref="A94:A96"/>
     <mergeCell ref="A97:A99"/>
+    <mergeCell ref="A150:A152"/>
+    <mergeCell ref="A144:H144"/>
+    <mergeCell ref="B163:C163"/>
+    <mergeCell ref="D163:E163"/>
+    <mergeCell ref="O98:S98"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0.39370078740157505" bottom="0.39370078740157505" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
